--- a/documentation/DX-SAHP_Gantt_Chart.xlsx
+++ b/documentation/DX-SAHP_Gantt_Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charuka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B029F37-44A7-4C76-B6BF-47C8F0812932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C488C6C0-12DE-4966-AF87-2C27638C3B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{33C4A9F1-4FA8-41ED-B316-B84114173276}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33C4A9F1-4FA8-41ED-B316-B84114173276}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="157">
   <si>
     <t>TASK</t>
   </si>
@@ -108,12 +108,6 @@
   </si>
   <si>
     <t>Iterim Report</t>
-  </si>
-  <si>
-    <t>Peer Evaluation</t>
-  </si>
-  <si>
-    <t>Individual Contribution Report</t>
   </si>
   <si>
     <t>Final Presentation</t>
@@ -338,15 +332,6 @@
     <t>Coefficient of Performance Testing</t>
   </si>
   <si>
-    <t>4.3.1</t>
-  </si>
-  <si>
-    <t>4.3.2</t>
-  </si>
-  <si>
-    <t>4.3.3</t>
-  </si>
-  <si>
     <t>Milestone: Project Closeout</t>
   </si>
   <si>
@@ -383,16 +368,10 @@
     <t>Charuka, Edwin</t>
   </si>
   <si>
-    <t>Dhruvi, Nadia, Edwin</t>
-  </si>
-  <si>
     <t>Nadia, Dhruvi</t>
   </si>
   <si>
     <t>Thermodynamic Cycle Values</t>
-  </si>
-  <si>
-    <t>Nadia, Kerwin</t>
   </si>
   <si>
     <t>Jessica, Kerwin</t>
@@ -442,6 +421,96 @@
   <si>
     <t>Solar Collector Components</t>
   </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>Interim Presentation</t>
+  </si>
+  <si>
+    <t>3.3.7</t>
+  </si>
+  <si>
+    <t>Collector to Condenser</t>
+  </si>
+  <si>
+    <t>Peer Evaluation Fall</t>
+  </si>
+  <si>
+    <t>Individual Contribution Report Fall</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>Peer Evaluation Winter</t>
+  </si>
+  <si>
+    <t>Individual Contribution Report Winter</t>
+  </si>
+  <si>
+    <t>Design Fair Poster</t>
+  </si>
+  <si>
+    <t>Design Fair Website</t>
+  </si>
+  <si>
+    <t>Design Fair</t>
+  </si>
+  <si>
+    <t>Design Fair Video</t>
+  </si>
+  <si>
+    <t>5.7.1</t>
+  </si>
+  <si>
+    <t>5.7.2</t>
+  </si>
+  <si>
+    <t>5.7.3</t>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>4.4.2</t>
+  </si>
+  <si>
+    <t>4.4.3</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Simulated Test on MATLAB</t>
+  </si>
+  <si>
+    <t>Dhruvi, Nadia</t>
+  </si>
+  <si>
+    <t>Dhruvi, Jessica</t>
+  </si>
+  <si>
+    <t>Edwin, Nadia, Jessica</t>
+  </si>
+  <si>
+    <t>Nadia, Kerwin, Jessica</t>
+  </si>
+  <si>
+    <t>Edwin, Nadia, Jessica, Dhruvi</t>
+  </si>
 </sst>
 </file>
 
@@ -451,7 +520,7 @@
     <numFmt numFmtId="164" formatCode="d"/>
     <numFmt numFmtId="165" formatCode="dd/mmmm/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,8 +602,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,6 +631,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -843,6 +924,24 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,17 +963,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="167">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5C9ABD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -885,7 +985,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF5C9ABD"/>
+          <bgColor rgb="FF9CAFB7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -899,7 +999,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF9CAFB7"/>
+          <bgColor rgb="FFEAD2AC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -913,7 +1013,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEAD2AC"/>
+          <bgColor rgb="FFE6B89C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -921,13 +1021,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDC9B73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B89C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -949,7 +1042,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFA1C181"/>
+        <color rgb="FF88B05F"/>
       </font>
     </dxf>
     <dxf>
@@ -959,1156 +1052,6 @@
         </left>
         <right style="thin">
           <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF88B05F"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4281A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5C9ABD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7E97A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CAFB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0BC83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD2AC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDC9B73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B89C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE938C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE6459"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4281A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5C9ABD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7E97A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CAFB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0BC83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD2AC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDC9B73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B89C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE938C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE6459"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF555A"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4281A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5C9ABD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7E97A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CAFB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0BC83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD2AC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDC9B73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B89C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE938C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE6459"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF555A"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4281A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5C9ABD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7E97A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CAFB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0BC83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD2AC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDC9B73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B89C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE938C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE6459"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF555A"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5C9ABD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4281A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7E97A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9CAFB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0BC83"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD2AC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDC9B73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B89C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE938C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE6459"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF555A"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF726C5E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E6472"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9EF7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA69E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE4FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAF3DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDC9B73"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B89C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE938C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE6459"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF555A"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF726C5E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E6472"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9EF7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA69E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE4FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAF3DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2B8C4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB8F2E6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAED9E0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0B5AE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF555A"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF726C5E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E6472"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF61B3F4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4A261"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF51C9E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE76F51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6A8FE9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9C46A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2A9D8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9D2A38"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF555A"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF533326"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF264653"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF61B3F4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4A261"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF51C9E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE76F51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6A8FE9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9C46A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2A9D8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9D2A38"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF555A"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF533326"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF264653"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF61B3F4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4A261"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF51C9E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE76F51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6A8FE9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9C46A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2A9D8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9D2A38"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF555A"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF555A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF555A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF51C9E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE76F51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6A8FE9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9C46A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2A9D8F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9D2A38"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF555A"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF555A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF555A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF555A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF555A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF555A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF555A"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF555A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF555A"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF555A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF555A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF555A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
-        </left>
-        <right style="thin">
-          <color theme="8" tint="0.59996337778862885"/>
         </right>
         <vertical/>
         <horizontal/>
@@ -2438,370 +1381,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619ECF5E-F98C-4198-9BFF-0C9A8531B5C6}">
-  <dimension ref="A1:HW79"/>
+  <dimension ref="A1:HW88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="231" width="2.85546875" style="3" customWidth="1"/>
-    <col min="232" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="36.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="231" width="2.88671875" style="3" customWidth="1"/>
+    <col min="232" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:231" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:231" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
     </row>
-    <row r="2" spans="1:231" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>27</v>
+    <row r="2" spans="1:231" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="C3" s="48" t="s">
+    <row r="3" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="C3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="46">
+      <c r="D3" s="55"/>
+      <c r="E3" s="52">
         <v>44473</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="53"/>
     </row>
-    <row r="4" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="H4" s="43">
+    <row r="4" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="H4" s="49">
         <f>H5</f>
         <v>44473</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="43">
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="49">
         <f>O5</f>
         <v>44480</v>
       </c>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="43">
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="49">
         <f>V5</f>
         <v>44487</v>
       </c>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="43">
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="49">
         <f>AC5</f>
         <v>44494</v>
       </c>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="43">
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="49">
         <f>AJ5</f>
         <v>44501</v>
       </c>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="43">
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="49">
         <f>AQ5</f>
         <v>44508</v>
       </c>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="43">
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="49">
         <f>AX5</f>
         <v>44515</v>
       </c>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="44"/>
-      <c r="BD4" s="45"/>
-      <c r="BE4" s="43">
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="50"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="49">
         <f>BE5</f>
         <v>44522</v>
       </c>
-      <c r="BF4" s="44"/>
-      <c r="BG4" s="44"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="44"/>
-      <c r="BJ4" s="44"/>
-      <c r="BK4" s="45"/>
-      <c r="BL4" s="43">
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="50"/>
+      <c r="BH4" s="50"/>
+      <c r="BI4" s="50"/>
+      <c r="BJ4" s="50"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="49">
         <f>BL5</f>
         <v>44529</v>
       </c>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="44"/>
-      <c r="BP4" s="44"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="45"/>
-      <c r="BS4" s="43">
+      <c r="BM4" s="50"/>
+      <c r="BN4" s="50"/>
+      <c r="BO4" s="50"/>
+      <c r="BP4" s="50"/>
+      <c r="BQ4" s="50"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="49">
         <f>BS5</f>
         <v>44536</v>
       </c>
-      <c r="BT4" s="44"/>
-      <c r="BU4" s="44"/>
-      <c r="BV4" s="44"/>
-      <c r="BW4" s="44"/>
-      <c r="BX4" s="44"/>
-      <c r="BY4" s="45"/>
-      <c r="BZ4" s="43">
+      <c r="BT4" s="50"/>
+      <c r="BU4" s="50"/>
+      <c r="BV4" s="50"/>
+      <c r="BW4" s="50"/>
+      <c r="BX4" s="50"/>
+      <c r="BY4" s="51"/>
+      <c r="BZ4" s="49">
         <f>BZ5</f>
         <v>44543</v>
       </c>
-      <c r="CA4" s="44"/>
-      <c r="CB4" s="44"/>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="44"/>
-      <c r="CE4" s="44"/>
-      <c r="CF4" s="45"/>
-      <c r="CG4" s="43">
+      <c r="CA4" s="50"/>
+      <c r="CB4" s="50"/>
+      <c r="CC4" s="50"/>
+      <c r="CD4" s="50"/>
+      <c r="CE4" s="50"/>
+      <c r="CF4" s="51"/>
+      <c r="CG4" s="49">
         <f>CG5</f>
         <v>44550</v>
       </c>
-      <c r="CH4" s="44"/>
-      <c r="CI4" s="44"/>
-      <c r="CJ4" s="44"/>
-      <c r="CK4" s="44"/>
-      <c r="CL4" s="44"/>
-      <c r="CM4" s="45"/>
-      <c r="CN4" s="43">
+      <c r="CH4" s="50"/>
+      <c r="CI4" s="50"/>
+      <c r="CJ4" s="50"/>
+      <c r="CK4" s="50"/>
+      <c r="CL4" s="50"/>
+      <c r="CM4" s="51"/>
+      <c r="CN4" s="49">
         <f>CN5</f>
         <v>44557</v>
       </c>
-      <c r="CO4" s="44"/>
-      <c r="CP4" s="44"/>
-      <c r="CQ4" s="44"/>
-      <c r="CR4" s="44"/>
-      <c r="CS4" s="44"/>
-      <c r="CT4" s="45"/>
-      <c r="CU4" s="43">
+      <c r="CO4" s="50"/>
+      <c r="CP4" s="50"/>
+      <c r="CQ4" s="50"/>
+      <c r="CR4" s="50"/>
+      <c r="CS4" s="50"/>
+      <c r="CT4" s="51"/>
+      <c r="CU4" s="49">
         <f>CU5</f>
         <v>44564</v>
       </c>
-      <c r="CV4" s="44"/>
-      <c r="CW4" s="44"/>
-      <c r="CX4" s="44"/>
-      <c r="CY4" s="44"/>
-      <c r="CZ4" s="44"/>
-      <c r="DA4" s="45"/>
-      <c r="DB4" s="43">
+      <c r="CV4" s="50"/>
+      <c r="CW4" s="50"/>
+      <c r="CX4" s="50"/>
+      <c r="CY4" s="50"/>
+      <c r="CZ4" s="50"/>
+      <c r="DA4" s="51"/>
+      <c r="DB4" s="49">
         <f>DB5</f>
         <v>44571</v>
       </c>
-      <c r="DC4" s="44"/>
-      <c r="DD4" s="44"/>
-      <c r="DE4" s="44"/>
-      <c r="DF4" s="44"/>
-      <c r="DG4" s="44"/>
-      <c r="DH4" s="45"/>
-      <c r="DI4" s="43">
+      <c r="DC4" s="50"/>
+      <c r="DD4" s="50"/>
+      <c r="DE4" s="50"/>
+      <c r="DF4" s="50"/>
+      <c r="DG4" s="50"/>
+      <c r="DH4" s="51"/>
+      <c r="DI4" s="49">
         <f>DI5</f>
         <v>44578</v>
       </c>
-      <c r="DJ4" s="44"/>
-      <c r="DK4" s="44"/>
-      <c r="DL4" s="44"/>
-      <c r="DM4" s="44"/>
-      <c r="DN4" s="44"/>
-      <c r="DO4" s="45"/>
-      <c r="DP4" s="43">
+      <c r="DJ4" s="50"/>
+      <c r="DK4" s="50"/>
+      <c r="DL4" s="50"/>
+      <c r="DM4" s="50"/>
+      <c r="DN4" s="50"/>
+      <c r="DO4" s="51"/>
+      <c r="DP4" s="49">
         <f>DP5</f>
         <v>44585</v>
       </c>
-      <c r="DQ4" s="44"/>
-      <c r="DR4" s="44"/>
-      <c r="DS4" s="44"/>
-      <c r="DT4" s="44"/>
-      <c r="DU4" s="44"/>
-      <c r="DV4" s="45"/>
-      <c r="DW4" s="43">
+      <c r="DQ4" s="50"/>
+      <c r="DR4" s="50"/>
+      <c r="DS4" s="50"/>
+      <c r="DT4" s="50"/>
+      <c r="DU4" s="50"/>
+      <c r="DV4" s="51"/>
+      <c r="DW4" s="49">
         <f>DW5</f>
         <v>44592</v>
       </c>
-      <c r="DX4" s="44"/>
-      <c r="DY4" s="44"/>
-      <c r="DZ4" s="44"/>
-      <c r="EA4" s="44"/>
-      <c r="EB4" s="44"/>
-      <c r="EC4" s="45"/>
-      <c r="ED4" s="43">
+      <c r="DX4" s="50"/>
+      <c r="DY4" s="50"/>
+      <c r="DZ4" s="50"/>
+      <c r="EA4" s="50"/>
+      <c r="EB4" s="50"/>
+      <c r="EC4" s="51"/>
+      <c r="ED4" s="49">
         <f>ED5</f>
         <v>44599</v>
       </c>
-      <c r="EE4" s="44"/>
-      <c r="EF4" s="44"/>
-      <c r="EG4" s="44"/>
-      <c r="EH4" s="44"/>
-      <c r="EI4" s="44"/>
-      <c r="EJ4" s="45"/>
-      <c r="EK4" s="43">
+      <c r="EE4" s="50"/>
+      <c r="EF4" s="50"/>
+      <c r="EG4" s="50"/>
+      <c r="EH4" s="50"/>
+      <c r="EI4" s="50"/>
+      <c r="EJ4" s="51"/>
+      <c r="EK4" s="49">
         <f>EK5</f>
         <v>44606</v>
       </c>
-      <c r="EL4" s="44"/>
-      <c r="EM4" s="44"/>
-      <c r="EN4" s="44"/>
-      <c r="EO4" s="44"/>
-      <c r="EP4" s="44"/>
-      <c r="EQ4" s="45"/>
-      <c r="ER4" s="43">
+      <c r="EL4" s="50"/>
+      <c r="EM4" s="50"/>
+      <c r="EN4" s="50"/>
+      <c r="EO4" s="50"/>
+      <c r="EP4" s="50"/>
+      <c r="EQ4" s="51"/>
+      <c r="ER4" s="49">
         <f>ER5</f>
         <v>44613</v>
       </c>
-      <c r="ES4" s="44"/>
-      <c r="ET4" s="44"/>
-      <c r="EU4" s="44"/>
-      <c r="EV4" s="44"/>
-      <c r="EW4" s="44"/>
-      <c r="EX4" s="45"/>
-      <c r="EY4" s="43">
+      <c r="ES4" s="50"/>
+      <c r="ET4" s="50"/>
+      <c r="EU4" s="50"/>
+      <c r="EV4" s="50"/>
+      <c r="EW4" s="50"/>
+      <c r="EX4" s="51"/>
+      <c r="EY4" s="49">
         <f>EY5</f>
         <v>44620</v>
       </c>
-      <c r="EZ4" s="44"/>
-      <c r="FA4" s="44"/>
-      <c r="FB4" s="44"/>
-      <c r="FC4" s="44"/>
-      <c r="FD4" s="44"/>
-      <c r="FE4" s="45"/>
-      <c r="FF4" s="43">
+      <c r="EZ4" s="50"/>
+      <c r="FA4" s="50"/>
+      <c r="FB4" s="50"/>
+      <c r="FC4" s="50"/>
+      <c r="FD4" s="50"/>
+      <c r="FE4" s="51"/>
+      <c r="FF4" s="49">
         <f>FF5</f>
         <v>44627</v>
       </c>
-      <c r="FG4" s="44"/>
-      <c r="FH4" s="44"/>
-      <c r="FI4" s="44"/>
-      <c r="FJ4" s="44"/>
-      <c r="FK4" s="44"/>
-      <c r="FL4" s="45"/>
-      <c r="FM4" s="43">
+      <c r="FG4" s="50"/>
+      <c r="FH4" s="50"/>
+      <c r="FI4" s="50"/>
+      <c r="FJ4" s="50"/>
+      <c r="FK4" s="50"/>
+      <c r="FL4" s="51"/>
+      <c r="FM4" s="49">
         <f>FM5</f>
         <v>44634</v>
       </c>
-      <c r="FN4" s="44"/>
-      <c r="FO4" s="44"/>
-      <c r="FP4" s="44"/>
-      <c r="FQ4" s="44"/>
-      <c r="FR4" s="44"/>
-      <c r="FS4" s="45"/>
-      <c r="FT4" s="43">
+      <c r="FN4" s="50"/>
+      <c r="FO4" s="50"/>
+      <c r="FP4" s="50"/>
+      <c r="FQ4" s="50"/>
+      <c r="FR4" s="50"/>
+      <c r="FS4" s="51"/>
+      <c r="FT4" s="49">
         <f>FT5</f>
         <v>44641</v>
       </c>
-      <c r="FU4" s="44"/>
-      <c r="FV4" s="44"/>
-      <c r="FW4" s="44"/>
-      <c r="FX4" s="44"/>
-      <c r="FY4" s="44"/>
-      <c r="FZ4" s="45"/>
-      <c r="GA4" s="43">
+      <c r="FU4" s="50"/>
+      <c r="FV4" s="50"/>
+      <c r="FW4" s="50"/>
+      <c r="FX4" s="50"/>
+      <c r="FY4" s="50"/>
+      <c r="FZ4" s="51"/>
+      <c r="GA4" s="49">
         <f>GA5</f>
         <v>44648</v>
       </c>
-      <c r="GB4" s="44"/>
-      <c r="GC4" s="44"/>
-      <c r="GD4" s="44"/>
-      <c r="GE4" s="44"/>
-      <c r="GF4" s="44"/>
-      <c r="GG4" s="45"/>
-      <c r="GH4" s="43">
+      <c r="GB4" s="50"/>
+      <c r="GC4" s="50"/>
+      <c r="GD4" s="50"/>
+      <c r="GE4" s="50"/>
+      <c r="GF4" s="50"/>
+      <c r="GG4" s="51"/>
+      <c r="GH4" s="49">
         <f>GH5</f>
         <v>44655</v>
       </c>
-      <c r="GI4" s="44"/>
-      <c r="GJ4" s="44"/>
-      <c r="GK4" s="44"/>
-      <c r="GL4" s="44"/>
-      <c r="GM4" s="44"/>
-      <c r="GN4" s="45"/>
-      <c r="GO4" s="43">
+      <c r="GI4" s="50"/>
+      <c r="GJ4" s="50"/>
+      <c r="GK4" s="50"/>
+      <c r="GL4" s="50"/>
+      <c r="GM4" s="50"/>
+      <c r="GN4" s="51"/>
+      <c r="GO4" s="49">
         <f>GO5</f>
         <v>44662</v>
       </c>
-      <c r="GP4" s="44"/>
-      <c r="GQ4" s="44"/>
-      <c r="GR4" s="44"/>
-      <c r="GS4" s="44"/>
-      <c r="GT4" s="44"/>
-      <c r="GU4" s="45"/>
-      <c r="GV4" s="43">
+      <c r="GP4" s="50"/>
+      <c r="GQ4" s="50"/>
+      <c r="GR4" s="50"/>
+      <c r="GS4" s="50"/>
+      <c r="GT4" s="50"/>
+      <c r="GU4" s="51"/>
+      <c r="GV4" s="49">
         <f>GV5</f>
         <v>44669</v>
       </c>
-      <c r="GW4" s="44"/>
-      <c r="GX4" s="44"/>
-      <c r="GY4" s="44"/>
-      <c r="GZ4" s="44"/>
-      <c r="HA4" s="44"/>
-      <c r="HB4" s="45"/>
-      <c r="HC4" s="43">
+      <c r="GW4" s="50"/>
+      <c r="GX4" s="50"/>
+      <c r="GY4" s="50"/>
+      <c r="GZ4" s="50"/>
+      <c r="HA4" s="50"/>
+      <c r="HB4" s="51"/>
+      <c r="HC4" s="49">
         <f>HC5</f>
         <v>44676</v>
       </c>
-      <c r="HD4" s="44"/>
-      <c r="HE4" s="44"/>
-      <c r="HF4" s="44"/>
-      <c r="HG4" s="44"/>
-      <c r="HH4" s="44"/>
-      <c r="HI4" s="45"/>
-      <c r="HJ4" s="43">
+      <c r="HD4" s="50"/>
+      <c r="HE4" s="50"/>
+      <c r="HF4" s="50"/>
+      <c r="HG4" s="50"/>
+      <c r="HH4" s="50"/>
+      <c r="HI4" s="51"/>
+      <c r="HJ4" s="49">
         <f>HJ5</f>
         <v>44683</v>
       </c>
-      <c r="HK4" s="44"/>
-      <c r="HL4" s="44"/>
-      <c r="HM4" s="44"/>
-      <c r="HN4" s="44"/>
-      <c r="HO4" s="44"/>
-      <c r="HP4" s="45"/>
-      <c r="HQ4" s="43">
+      <c r="HK4" s="50"/>
+      <c r="HL4" s="50"/>
+      <c r="HM4" s="50"/>
+      <c r="HN4" s="50"/>
+      <c r="HO4" s="50"/>
+      <c r="HP4" s="51"/>
+      <c r="HQ4" s="49">
         <f>HQ5</f>
         <v>44690</v>
       </c>
-      <c r="HR4" s="44"/>
-      <c r="HS4" s="44"/>
-      <c r="HT4" s="44"/>
-      <c r="HU4" s="44"/>
-      <c r="HV4" s="44"/>
-      <c r="HW4" s="45"/>
+      <c r="HR4" s="50"/>
+      <c r="HS4" s="50"/>
+      <c r="HT4" s="50"/>
+      <c r="HU4" s="50"/>
+      <c r="HV4" s="50"/>
+      <c r="HW4" s="51"/>
     </row>
-    <row r="5" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
@@ -3706,13 +2649,13 @@
         <v>44696</v>
       </c>
     </row>
-    <row r="6" spans="1:231" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:231" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>4</v>
@@ -4621,17 +3564,17 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <v>1</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="19">
         <f>AVERAGE(D8,D9,D16,D17,D18,D19,D20,D21)</f>
-        <v>0.80625000000000002</v>
+        <v>1</v>
       </c>
       <c r="E7" s="8">
         <f>E10</f>
@@ -4867,7 +3810,7 @@
       <c r="HV7" s="10"/>
       <c r="HW7" s="10"/>
     </row>
-    <row r="8" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A8" s="37">
         <v>1.1000000000000001</v>
       </c>
@@ -5112,15 +4055,15 @@
       <c r="HV8" s="10"/>
       <c r="HW8" s="10"/>
     </row>
-    <row r="9" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A9" s="37">
         <v>1.2</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="D9" s="19">
         <f>AVERAGE(D10:D14)</f>
@@ -5360,12 +4303,12 @@
       <c r="HV9" s="10"/>
       <c r="HW9" s="10"/>
     </row>
-    <row r="10" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>13</v>
@@ -5605,15 +4548,15 @@
       <c r="HV10" s="10"/>
       <c r="HW10" s="10"/>
     </row>
-    <row r="11" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D11" s="19">
         <v>1</v>
@@ -5850,15 +4793,15 @@
       <c r="HV11" s="10"/>
       <c r="HW11" s="10"/>
     </row>
-    <row r="12" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D12" s="19">
         <v>1</v>
@@ -6095,12 +5038,12 @@
       <c r="HV12" s="10"/>
       <c r="HW12" s="10"/>
     </row>
-    <row r="13" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>13</v>
@@ -6340,15 +5283,15 @@
       <c r="HV13" s="10"/>
       <c r="HW13" s="10"/>
     </row>
-    <row r="14" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D14" s="19">
         <v>1</v>
@@ -6585,9 +5528,9 @@
       <c r="HV14" s="10"/>
       <c r="HW14" s="10"/>
     </row>
-    <row r="15" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -6830,15 +5773,15 @@
       <c r="HV15" s="10"/>
       <c r="HW15" s="10"/>
     </row>
-    <row r="16" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>1.3</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="D16" s="19">
         <v>1</v>
@@ -7075,18 +6018,18 @@
       <c r="HV16" s="10"/>
       <c r="HW16" s="10"/>
     </row>
-    <row r="17" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>1.4</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D17" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="8">
         <v>44571</v>
@@ -7320,15 +6263,15 @@
       <c r="HV17" s="10"/>
       <c r="HW17" s="10"/>
     </row>
-    <row r="18" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>1.5</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D18" s="19">
         <v>1</v>
@@ -7565,18 +6508,18 @@
       <c r="HV18" s="10"/>
       <c r="HW18" s="10"/>
     </row>
-    <row r="19" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A19" s="37">
         <v>1.6</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D19" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E19" s="8">
         <v>44519</v>
@@ -7810,18 +6753,18 @@
       <c r="HV19" s="10"/>
       <c r="HW19" s="10"/>
     </row>
-    <row r="20" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>1.7</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E20" s="8">
         <v>44571</v>
@@ -8055,19 +6998,19 @@
       <c r="HV20" s="10"/>
       <c r="HW20" s="10"/>
     </row>
-    <row r="21" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>1.8</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="19">
         <f>AVERAGE(D22,D25,D23,D24)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E21" s="8">
         <f>E22</f>
@@ -8303,12 +7246,12 @@
       <c r="HV21" s="10"/>
       <c r="HW21" s="10"/>
     </row>
-    <row r="22" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>12</v>
@@ -8548,12 +7491,12 @@
       <c r="HV22" s="10"/>
       <c r="HW22" s="10"/>
     </row>
-    <row r="23" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>12</v>
@@ -8793,18 +7736,18 @@
       <c r="HV23" s="10"/>
       <c r="HW23" s="10"/>
     </row>
-    <row r="24" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D24" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="8">
         <v>44571</v>
@@ -9038,15 +7981,15 @@
       <c r="HV24" s="10"/>
       <c r="HW24" s="10"/>
     </row>
-    <row r="25" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="D25" s="19">
         <f>AVERAGE(D26:D27)</f>
@@ -9286,15 +8229,15 @@
       <c r="HV25" s="10"/>
       <c r="HW25" s="10"/>
     </row>
-    <row r="26" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D26" s="19">
         <v>1</v>
@@ -9531,15 +8474,15 @@
       <c r="HV26" s="10"/>
       <c r="HW26" s="10"/>
     </row>
-    <row r="27" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D27" s="19">
         <v>1</v>
@@ -9776,7 +8719,7 @@
       <c r="HV27" s="10"/>
       <c r="HW27" s="10"/>
     </row>
-    <row r="28" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A28" s="37">
         <v>1.9</v>
       </c>
@@ -9784,10 +8727,11 @@
         <v>18</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D28" s="19">
-        <v>0.9</v>
+        <f>D7</f>
+        <v>1</v>
       </c>
       <c r="E28" s="8">
         <v>44531</v>
@@ -10021,7 +8965,7 @@
       <c r="HV28" s="10"/>
       <c r="HW28" s="10"/>
     </row>
-    <row r="29" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>2</v>
       </c>
@@ -10031,7 +8975,7 @@
       <c r="C29" s="26"/>
       <c r="D29" s="41">
         <f>AVERAGE(D30,D31,D36,D37,D38,D39,D40,D43)</f>
-        <v>0</v>
+        <v>0.984375</v>
       </c>
       <c r="E29" s="27">
         <f>E30</f>
@@ -10267,24 +9211,24 @@
       <c r="HV29" s="28"/>
       <c r="HW29" s="28"/>
     </row>
-    <row r="30" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <v>2.1</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="41">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E30" s="27">
         <v>44545</v>
       </c>
       <c r="F30" s="27">
-        <v>44607</v>
+        <v>44620</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -10512,24 +9456,24 @@
       <c r="HV30" s="28"/>
       <c r="HW30" s="28"/>
     </row>
-    <row r="31" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <v>2.2000000000000002</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D31" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="27">
         <v>44545</v>
       </c>
       <c r="F31" s="27">
-        <v>44607</v>
+        <v>44635</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
@@ -10757,24 +9701,24 @@
       <c r="HV31" s="28"/>
       <c r="HW31" s="28"/>
     </row>
-    <row r="32" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="27">
-        <v>44556</v>
+        <v>44618</v>
       </c>
       <c r="F32" s="27">
-        <v>44607</v>
+        <v>44635</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -11002,24 +9946,24 @@
       <c r="HV32" s="28"/>
       <c r="HW32" s="28"/>
     </row>
-    <row r="33" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D33" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="27">
-        <v>44545</v>
+        <v>44610</v>
       </c>
       <c r="F33" s="27">
-        <v>44607</v>
+        <v>44620</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
@@ -11247,24 +10191,24 @@
       <c r="HV33" s="28"/>
       <c r="HW33" s="28"/>
     </row>
-    <row r="34" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="D34" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="27">
         <v>44556</v>
       </c>
       <c r="F34" s="27">
-        <v>44607</v>
+        <v>44589</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -11492,24 +10436,24 @@
       <c r="HV34" s="28"/>
       <c r="HW34" s="28"/>
     </row>
-    <row r="35" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="D35" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="27">
         <v>44545</v>
       </c>
       <c r="F35" s="27">
-        <v>44599</v>
+        <v>44612</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
@@ -11737,24 +10681,24 @@
       <c r="HV35" s="28"/>
       <c r="HW35" s="28"/>
     </row>
-    <row r="36" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <v>2.2999999999999998</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="27">
         <v>44545</v>
       </c>
       <c r="F36" s="27">
-        <v>44607</v>
+        <v>44620</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
@@ -11982,18 +10926,18 @@
       <c r="HV36" s="28"/>
       <c r="HW36" s="28"/>
     </row>
-    <row r="37" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
         <v>2.4</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D37" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="27">
         <v>44585</v>
@@ -12227,18 +11171,18 @@
       <c r="HV37" s="28"/>
       <c r="HW37" s="28"/>
     </row>
-    <row r="38" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A38" s="39">
         <v>2.5</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D38" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="27">
         <v>44545</v>
@@ -12472,18 +11416,18 @@
       <c r="HV38" s="28"/>
       <c r="HW38" s="28"/>
     </row>
-    <row r="39" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
         <v>2.6</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="27">
         <v>44545</v>
@@ -12717,24 +11661,24 @@
       <c r="HV39" s="28"/>
       <c r="HW39" s="28"/>
     </row>
-    <row r="40" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
         <v>2.7</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="27">
         <v>44560</v>
       </c>
       <c r="F40" s="27">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
@@ -12962,24 +11906,24 @@
       <c r="HV40" s="28"/>
       <c r="HW40" s="28"/>
     </row>
-    <row r="41" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="27">
         <v>44560</v>
       </c>
       <c r="F41" s="27">
-        <v>44599</v>
+        <v>44620</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
@@ -13207,18 +12151,18 @@
       <c r="HV41" s="28"/>
       <c r="HW41" s="28"/>
     </row>
-    <row r="42" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="27">
         <v>44560</v>
@@ -13452,18 +12396,19 @@
       <c r="HV42" s="28"/>
       <c r="HW42" s="28"/>
     </row>
-    <row r="43" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A43" s="39">
         <v>2.8</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="41">
-        <v>0</v>
+        <f>AVERAGE(D44:D47)</f>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E43" s="27">
         <v>44585</v>
@@ -13697,24 +12642,24 @@
       <c r="HV43" s="28"/>
       <c r="HW43" s="28"/>
     </row>
-    <row r="44" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D44" s="41">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E44" s="27">
         <v>44545</v>
       </c>
       <c r="F44" s="27">
-        <v>44599</v>
+        <v>44620</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
@@ -13942,24 +12887,24 @@
       <c r="HV44" s="28"/>
       <c r="HW44" s="28"/>
     </row>
-    <row r="45" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A45" s="39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D45" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="27">
         <v>44545</v>
       </c>
       <c r="F45" s="27">
-        <v>44599</v>
+        <v>44627</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
@@ -14187,24 +13132,24 @@
       <c r="HV45" s="28"/>
       <c r="HW45" s="28"/>
     </row>
-    <row r="46" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D46" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="27">
-        <v>44585</v>
+        <v>44599</v>
       </c>
       <c r="F46" s="27">
-        <v>44599</v>
+        <v>44614</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
@@ -14432,24 +13377,24 @@
       <c r="HV46" s="28"/>
       <c r="HW46" s="28"/>
     </row>
-    <row r="47" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="27">
-        <v>44585</v>
+        <v>44620</v>
       </c>
       <c r="F47" s="27">
-        <v>44620</v>
+        <v>44635</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -14677,24 +13622,24 @@
       <c r="HV47" s="28"/>
       <c r="HW47" s="28"/>
     </row>
-    <row r="48" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D48" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="27">
-        <v>44585</v>
+        <v>44616</v>
       </c>
       <c r="F48" s="27">
-        <v>44620</v>
+        <v>44635</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -14922,7 +13867,7 @@
       <c r="HV48" s="28"/>
       <c r="HW48" s="28"/>
     </row>
-    <row r="49" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A49" s="39">
         <v>2.9</v>
       </c>
@@ -14933,13 +13878,13 @@
         <v>17</v>
       </c>
       <c r="D49" s="41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E49" s="27">
         <v>44540</v>
       </c>
       <c r="F49" s="27">
-        <v>44540</v>
+        <v>44582</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -15167,24 +14112,25 @@
       <c r="HV49" s="28"/>
       <c r="HW49" s="28"/>
     </row>
-    <row r="50" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="41">
-        <v>0</v>
+        <f>AVERAGE(D30,D31,D37,D36,D38,D39,D40,D43)</f>
+        <v>0.984375</v>
       </c>
       <c r="E50" s="27">
         <v>44585</v>
       </c>
       <c r="F50" s="27">
-        <v>44585</v>
+        <v>44616</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -15412,24 +14358,24 @@
       <c r="HV50" s="28"/>
       <c r="HW50" s="28"/>
     </row>
-    <row r="51" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A51" s="36">
         <v>3</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="19">
-        <f>AVERAGE(D52,D53,D54,D61,D62)</f>
-        <v>0</v>
+        <f>AVERAGE(D52,D53,D54,D62,D63)</f>
+        <v>0.74285714285714288</v>
       </c>
       <c r="E51" s="8">
         <f>E54</f>
-        <v>44599</v>
+        <v>44652</v>
       </c>
       <c r="F51" s="8">
-        <f>F63</f>
+        <f>F64</f>
         <v>44621</v>
       </c>
       <c r="G51" s="9"/>
@@ -15658,24 +14604,24 @@
       <c r="HV51" s="10"/>
       <c r="HW51" s="10"/>
     </row>
-    <row r="52" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A52" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="8">
-        <v>44607</v>
+        <v>44614</v>
       </c>
       <c r="F52" s="8">
-        <v>44620</v>
+        <v>44650</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="10"/>
@@ -15903,24 +14849,24 @@
       <c r="HV52" s="10"/>
       <c r="HW52" s="10"/>
     </row>
-    <row r="53" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A53" s="40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="8">
-        <v>44607</v>
+        <v>44625</v>
       </c>
       <c r="F53" s="8">
-        <v>44620</v>
+        <v>44648</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="10"/>
@@ -16148,24 +15094,25 @@
       <c r="HV53" s="10"/>
       <c r="HW53" s="10"/>
     </row>
-    <row r="54" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A54" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="19">
-        <v>0</v>
+        <f>AVERAGE(D55:D61)</f>
+        <v>0.91428571428571437</v>
       </c>
       <c r="E54" s="8">
-        <v>44599</v>
+        <v>44652</v>
       </c>
       <c r="F54" s="8">
-        <v>44613</v>
+        <v>44681</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="10"/>
@@ -16393,24 +15340,24 @@
       <c r="HV54" s="10"/>
       <c r="HW54" s="10"/>
     </row>
-    <row r="55" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A55" s="40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="8">
-        <v>44599</v>
+        <v>44652</v>
       </c>
       <c r="F55" s="8">
-        <v>44613</v>
+        <v>44655</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="10"/>
@@ -16638,24 +15585,24 @@
       <c r="HV55" s="10"/>
       <c r="HW55" s="10"/>
     </row>
-    <row r="56" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A56" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="8">
-        <v>44599</v>
+        <v>44652</v>
       </c>
       <c r="F56" s="8">
-        <v>44613</v>
+        <v>44655</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="10"/>
@@ -16883,24 +15830,24 @@
       <c r="HV56" s="10"/>
       <c r="HW56" s="10"/>
     </row>
-    <row r="57" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A57" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="8">
-        <v>44599</v>
+        <v>44652</v>
       </c>
       <c r="F57" s="8">
-        <v>44613</v>
+        <v>44655</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="10"/>
@@ -17128,24 +16075,24 @@
       <c r="HV57" s="10"/>
       <c r="HW57" s="10"/>
     </row>
-    <row r="58" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A58" s="40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="8">
-        <v>44599</v>
+        <v>44652</v>
       </c>
       <c r="F58" s="8">
-        <v>44613</v>
+        <v>44655</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="10"/>
@@ -17373,24 +16320,24 @@
       <c r="HV58" s="10"/>
       <c r="HW58" s="10"/>
     </row>
-    <row r="59" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A59" s="40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="8">
-        <v>44599</v>
+        <v>44652</v>
       </c>
       <c r="F59" s="8">
-        <v>44613</v>
+        <v>44655</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="10"/>
@@ -17618,9 +16565,9 @@
       <c r="HV59" s="10"/>
       <c r="HW59" s="10"/>
     </row>
-    <row r="60" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A60" s="40" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B60" s="33" t="s">
         <v>131</v>
@@ -17629,13 +16576,13 @@
         <v>17</v>
       </c>
       <c r="D60" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E60" s="8">
-        <v>44599</v>
+        <v>44652</v>
       </c>
       <c r="F60" s="8">
-        <v>44610</v>
+        <v>44662</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="10"/>
@@ -17863,24 +16810,24 @@
       <c r="HV60" s="10"/>
       <c r="HW60" s="10"/>
     </row>
-    <row r="61" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A61" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>70</v>
+        <v>130</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="19">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E61" s="8">
-        <v>44607</v>
+        <v>44652</v>
       </c>
       <c r="F61" s="8">
-        <v>44621</v>
+        <v>44662</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="10"/>
@@ -18108,12 +17055,12 @@
       <c r="HV61" s="10"/>
       <c r="HW61" s="10"/>
     </row>
-    <row r="62" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A62" s="40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>17</v>
@@ -18122,10 +17069,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="8">
-        <v>44607</v>
+        <v>44652</v>
       </c>
       <c r="F62" s="8">
-        <v>44621</v>
+        <v>44681</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="10"/>
@@ -18353,24 +17300,24 @@
       <c r="HV62" s="10"/>
       <c r="HW62" s="10"/>
     </row>
-    <row r="63" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A63" s="40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D63" s="19">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E63" s="8">
-        <v>44621</v>
+        <v>44607</v>
       </c>
       <c r="F63" s="8">
-        <v>44621</v>
+        <v>44662</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="10"/>
@@ -18598,270 +17545,271 @@
       <c r="HV63" s="10"/>
       <c r="HW63" s="10"/>
     </row>
-    <row r="64" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="A64" s="38">
+    <row r="64" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A64" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="19">
+        <f>AVERAGE(D52,D53,D54,D62,D63)</f>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="E64" s="8">
+        <v>44621</v>
+      </c>
+      <c r="F64" s="8">
+        <v>44621</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="10"/>
+      <c r="AH64" s="10"/>
+      <c r="AI64" s="10"/>
+      <c r="AJ64" s="10"/>
+      <c r="AK64" s="10"/>
+      <c r="AL64" s="10"/>
+      <c r="AM64" s="10"/>
+      <c r="AN64" s="10"/>
+      <c r="AO64" s="10"/>
+      <c r="AP64" s="10"/>
+      <c r="AQ64" s="10"/>
+      <c r="AR64" s="10"/>
+      <c r="AS64" s="10"/>
+      <c r="AT64" s="10"/>
+      <c r="AU64" s="10"/>
+      <c r="AV64" s="10"/>
+      <c r="AW64" s="10"/>
+      <c r="AX64" s="10"/>
+      <c r="AY64" s="10"/>
+      <c r="AZ64" s="10"/>
+      <c r="BA64" s="10"/>
+      <c r="BB64" s="10"/>
+      <c r="BC64" s="10"/>
+      <c r="BD64" s="10"/>
+      <c r="BE64" s="10"/>
+      <c r="BF64" s="10"/>
+      <c r="BG64" s="10"/>
+      <c r="BH64" s="10"/>
+      <c r="BI64" s="10"/>
+      <c r="BJ64" s="10"/>
+      <c r="BK64" s="10"/>
+      <c r="BL64" s="10"/>
+      <c r="BM64" s="10"/>
+      <c r="BN64" s="10"/>
+      <c r="BO64" s="10"/>
+      <c r="BP64" s="10"/>
+      <c r="BQ64" s="10"/>
+      <c r="BR64" s="10"/>
+      <c r="BS64" s="10"/>
+      <c r="BT64" s="10"/>
+      <c r="BU64" s="10"/>
+      <c r="BV64" s="10"/>
+      <c r="BW64" s="10"/>
+      <c r="BX64" s="10"/>
+      <c r="BY64" s="10"/>
+      <c r="BZ64" s="10"/>
+      <c r="CA64" s="10"/>
+      <c r="CB64" s="10"/>
+      <c r="CC64" s="10"/>
+      <c r="CD64" s="10"/>
+      <c r="CE64" s="10"/>
+      <c r="CF64" s="10"/>
+      <c r="CG64" s="10"/>
+      <c r="CH64" s="10"/>
+      <c r="CI64" s="10"/>
+      <c r="CJ64" s="10"/>
+      <c r="CK64" s="10"/>
+      <c r="CL64" s="10"/>
+      <c r="CM64" s="10"/>
+      <c r="CN64" s="10"/>
+      <c r="CO64" s="10"/>
+      <c r="CP64" s="10"/>
+      <c r="CQ64" s="10"/>
+      <c r="CR64" s="10"/>
+      <c r="CS64" s="10"/>
+      <c r="CT64" s="10"/>
+      <c r="CU64" s="10"/>
+      <c r="CV64" s="10"/>
+      <c r="CW64" s="10"/>
+      <c r="CX64" s="10"/>
+      <c r="CY64" s="10"/>
+      <c r="CZ64" s="10"/>
+      <c r="DA64" s="10"/>
+      <c r="DB64" s="10"/>
+      <c r="DC64" s="10"/>
+      <c r="DD64" s="10"/>
+      <c r="DE64" s="10"/>
+      <c r="DF64" s="10"/>
+      <c r="DG64" s="10"/>
+      <c r="DH64" s="10"/>
+      <c r="DI64" s="10"/>
+      <c r="DJ64" s="10"/>
+      <c r="DK64" s="10"/>
+      <c r="DL64" s="10"/>
+      <c r="DM64" s="10"/>
+      <c r="DN64" s="10"/>
+      <c r="DO64" s="10"/>
+      <c r="DP64" s="10"/>
+      <c r="DQ64" s="10"/>
+      <c r="DR64" s="10"/>
+      <c r="DS64" s="10"/>
+      <c r="DT64" s="10"/>
+      <c r="DU64" s="10"/>
+      <c r="DV64" s="10"/>
+      <c r="DW64" s="10"/>
+      <c r="DX64" s="10"/>
+      <c r="DY64" s="10"/>
+      <c r="DZ64" s="10"/>
+      <c r="EA64" s="10"/>
+      <c r="EB64" s="10"/>
+      <c r="EC64" s="10"/>
+      <c r="ED64" s="10"/>
+      <c r="EE64" s="10"/>
+      <c r="EF64" s="10"/>
+      <c r="EG64" s="10"/>
+      <c r="EH64" s="10"/>
+      <c r="EI64" s="10"/>
+      <c r="EJ64" s="10"/>
+      <c r="EK64" s="10"/>
+      <c r="EL64" s="10"/>
+      <c r="EM64" s="10"/>
+      <c r="EN64" s="10"/>
+      <c r="EO64" s="10"/>
+      <c r="EP64" s="10"/>
+      <c r="EQ64" s="10"/>
+      <c r="ER64" s="10"/>
+      <c r="ES64" s="10"/>
+      <c r="ET64" s="10"/>
+      <c r="EU64" s="10"/>
+      <c r="EV64" s="10"/>
+      <c r="EW64" s="10"/>
+      <c r="EX64" s="10"/>
+      <c r="EY64" s="10"/>
+      <c r="EZ64" s="10"/>
+      <c r="FA64" s="10"/>
+      <c r="FB64" s="10"/>
+      <c r="FC64" s="10"/>
+      <c r="FD64" s="10"/>
+      <c r="FE64" s="10"/>
+      <c r="FF64" s="10"/>
+      <c r="FG64" s="10"/>
+      <c r="FH64" s="10"/>
+      <c r="FI64" s="10"/>
+      <c r="FJ64" s="10"/>
+      <c r="FK64" s="10"/>
+      <c r="FL64" s="10"/>
+      <c r="FM64" s="10"/>
+      <c r="FN64" s="10"/>
+      <c r="FO64" s="10"/>
+      <c r="FP64" s="10"/>
+      <c r="FQ64" s="10"/>
+      <c r="FR64" s="10"/>
+      <c r="FS64" s="10"/>
+      <c r="FT64" s="10"/>
+      <c r="FU64" s="10"/>
+      <c r="FV64" s="10"/>
+      <c r="FW64" s="10"/>
+      <c r="FX64" s="10"/>
+      <c r="FY64" s="10"/>
+      <c r="FZ64" s="10"/>
+      <c r="GA64" s="10"/>
+      <c r="GB64" s="10"/>
+      <c r="GC64" s="10"/>
+      <c r="GD64" s="10"/>
+      <c r="GE64" s="10"/>
+      <c r="GF64" s="10"/>
+      <c r="GG64" s="10"/>
+      <c r="GH64" s="10"/>
+      <c r="GI64" s="10"/>
+      <c r="GJ64" s="10"/>
+      <c r="GK64" s="10"/>
+      <c r="GL64" s="10"/>
+      <c r="GM64" s="10"/>
+      <c r="GN64" s="10"/>
+      <c r="GO64" s="10"/>
+      <c r="GP64" s="10"/>
+      <c r="GQ64" s="10"/>
+      <c r="GR64" s="10"/>
+      <c r="GS64" s="10"/>
+      <c r="GT64" s="10"/>
+      <c r="GU64" s="10"/>
+      <c r="GV64" s="10"/>
+      <c r="GW64" s="10"/>
+      <c r="GX64" s="10"/>
+      <c r="GY64" s="10"/>
+      <c r="GZ64" s="10"/>
+      <c r="HA64" s="10"/>
+      <c r="HB64" s="10"/>
+      <c r="HC64" s="10"/>
+      <c r="HD64" s="10"/>
+      <c r="HE64" s="10"/>
+      <c r="HF64" s="10"/>
+      <c r="HG64" s="10"/>
+      <c r="HH64" s="10"/>
+      <c r="HI64" s="10"/>
+      <c r="HJ64" s="10"/>
+      <c r="HK64" s="10"/>
+      <c r="HL64" s="10"/>
+      <c r="HM64" s="10"/>
+      <c r="HN64" s="10"/>
+      <c r="HO64" s="10"/>
+      <c r="HP64" s="10"/>
+      <c r="HQ64" s="10"/>
+      <c r="HR64" s="10"/>
+      <c r="HS64" s="10"/>
+      <c r="HT64" s="10"/>
+      <c r="HU64" s="10"/>
+      <c r="HV64" s="10"/>
+      <c r="HW64" s="10"/>
+    </row>
+    <row r="65" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A65" s="38">
         <v>4</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B65" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="26"/>
-      <c r="D64" s="41">
-        <f>AVERAGE(D65,D66,D67)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="27">
-        <f>E66</f>
-        <v>44585</v>
-      </c>
-      <c r="F64" s="27">
-        <f>F71</f>
-        <v>44663</v>
-      </c>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="28"/>
-      <c r="AC64" s="28"/>
-      <c r="AD64" s="28"/>
-      <c r="AE64" s="28"/>
-      <c r="AF64" s="28"/>
-      <c r="AG64" s="28"/>
-      <c r="AH64" s="28"/>
-      <c r="AI64" s="28"/>
-      <c r="AJ64" s="28"/>
-      <c r="AK64" s="28"/>
-      <c r="AL64" s="28"/>
-      <c r="AM64" s="28"/>
-      <c r="AN64" s="28"/>
-      <c r="AO64" s="28"/>
-      <c r="AP64" s="28"/>
-      <c r="AQ64" s="28"/>
-      <c r="AR64" s="28"/>
-      <c r="AS64" s="28"/>
-      <c r="AT64" s="28"/>
-      <c r="AU64" s="28"/>
-      <c r="AV64" s="28"/>
-      <c r="AW64" s="28"/>
-      <c r="AX64" s="28"/>
-      <c r="AY64" s="28"/>
-      <c r="AZ64" s="28"/>
-      <c r="BA64" s="28"/>
-      <c r="BB64" s="28"/>
-      <c r="BC64" s="28"/>
-      <c r="BD64" s="28"/>
-      <c r="BE64" s="28"/>
-      <c r="BF64" s="28"/>
-      <c r="BG64" s="28"/>
-      <c r="BH64" s="28"/>
-      <c r="BI64" s="28"/>
-      <c r="BJ64" s="28"/>
-      <c r="BK64" s="28"/>
-      <c r="BL64" s="28"/>
-      <c r="BM64" s="28"/>
-      <c r="BN64" s="28"/>
-      <c r="BO64" s="28"/>
-      <c r="BP64" s="28"/>
-      <c r="BQ64" s="28"/>
-      <c r="BR64" s="28"/>
-      <c r="BS64" s="28"/>
-      <c r="BT64" s="28"/>
-      <c r="BU64" s="28"/>
-      <c r="BV64" s="28"/>
-      <c r="BW64" s="28"/>
-      <c r="BX64" s="28"/>
-      <c r="BY64" s="28"/>
-      <c r="BZ64" s="28"/>
-      <c r="CA64" s="28"/>
-      <c r="CB64" s="28"/>
-      <c r="CC64" s="28"/>
-      <c r="CD64" s="28"/>
-      <c r="CE64" s="28"/>
-      <c r="CF64" s="28"/>
-      <c r="CG64" s="28"/>
-      <c r="CH64" s="28"/>
-      <c r="CI64" s="28"/>
-      <c r="CJ64" s="28"/>
-      <c r="CK64" s="28"/>
-      <c r="CL64" s="28"/>
-      <c r="CM64" s="28"/>
-      <c r="CN64" s="28"/>
-      <c r="CO64" s="28"/>
-      <c r="CP64" s="28"/>
-      <c r="CQ64" s="28"/>
-      <c r="CR64" s="28"/>
-      <c r="CS64" s="28"/>
-      <c r="CT64" s="28"/>
-      <c r="CU64" s="28"/>
-      <c r="CV64" s="28"/>
-      <c r="CW64" s="28"/>
-      <c r="CX64" s="28"/>
-      <c r="CY64" s="28"/>
-      <c r="CZ64" s="28"/>
-      <c r="DA64" s="28"/>
-      <c r="DB64" s="28"/>
-      <c r="DC64" s="28"/>
-      <c r="DD64" s="28"/>
-      <c r="DE64" s="28"/>
-      <c r="DF64" s="28"/>
-      <c r="DG64" s="28"/>
-      <c r="DH64" s="28"/>
-      <c r="DI64" s="28"/>
-      <c r="DJ64" s="28"/>
-      <c r="DK64" s="28"/>
-      <c r="DL64" s="28"/>
-      <c r="DM64" s="28"/>
-      <c r="DN64" s="28"/>
-      <c r="DO64" s="28"/>
-      <c r="DP64" s="28"/>
-      <c r="DQ64" s="28"/>
-      <c r="DR64" s="28"/>
-      <c r="DS64" s="28"/>
-      <c r="DT64" s="28"/>
-      <c r="DU64" s="28"/>
-      <c r="DV64" s="28"/>
-      <c r="DW64" s="28"/>
-      <c r="DX64" s="28"/>
-      <c r="DY64" s="28"/>
-      <c r="DZ64" s="28"/>
-      <c r="EA64" s="28"/>
-      <c r="EB64" s="28"/>
-      <c r="EC64" s="28"/>
-      <c r="ED64" s="28"/>
-      <c r="EE64" s="28"/>
-      <c r="EF64" s="28"/>
-      <c r="EG64" s="28"/>
-      <c r="EH64" s="28"/>
-      <c r="EI64" s="28"/>
-      <c r="EJ64" s="28"/>
-      <c r="EK64" s="28"/>
-      <c r="EL64" s="28"/>
-      <c r="EM64" s="28"/>
-      <c r="EN64" s="28"/>
-      <c r="EO64" s="28"/>
-      <c r="EP64" s="28"/>
-      <c r="EQ64" s="28"/>
-      <c r="ER64" s="28"/>
-      <c r="ES64" s="28"/>
-      <c r="ET64" s="28"/>
-      <c r="EU64" s="28"/>
-      <c r="EV64" s="28"/>
-      <c r="EW64" s="28"/>
-      <c r="EX64" s="28"/>
-      <c r="EY64" s="28"/>
-      <c r="EZ64" s="28"/>
-      <c r="FA64" s="28"/>
-      <c r="FB64" s="28"/>
-      <c r="FC64" s="28"/>
-      <c r="FD64" s="28"/>
-      <c r="FE64" s="28"/>
-      <c r="FF64" s="28"/>
-      <c r="FG64" s="28"/>
-      <c r="FH64" s="28"/>
-      <c r="FI64" s="28"/>
-      <c r="FJ64" s="28"/>
-      <c r="FK64" s="28"/>
-      <c r="FL64" s="28"/>
-      <c r="FM64" s="28"/>
-      <c r="FN64" s="28"/>
-      <c r="FO64" s="28"/>
-      <c r="FP64" s="28"/>
-      <c r="FQ64" s="28"/>
-      <c r="FR64" s="28"/>
-      <c r="FS64" s="28"/>
-      <c r="FT64" s="28"/>
-      <c r="FU64" s="28"/>
-      <c r="FV64" s="28"/>
-      <c r="FW64" s="28"/>
-      <c r="FX64" s="28"/>
-      <c r="FY64" s="28"/>
-      <c r="FZ64" s="28"/>
-      <c r="GA64" s="28"/>
-      <c r="GB64" s="28"/>
-      <c r="GC64" s="28"/>
-      <c r="GD64" s="28"/>
-      <c r="GE64" s="28"/>
-      <c r="GF64" s="28"/>
-      <c r="GG64" s="28"/>
-      <c r="GH64" s="28"/>
-      <c r="GI64" s="28"/>
-      <c r="GJ64" s="28"/>
-      <c r="GK64" s="28"/>
-      <c r="GL64" s="28"/>
-      <c r="GM64" s="28"/>
-      <c r="GN64" s="28"/>
-      <c r="GO64" s="28"/>
-      <c r="GP64" s="28"/>
-      <c r="GQ64" s="28"/>
-      <c r="GR64" s="28"/>
-      <c r="GS64" s="28"/>
-      <c r="GT64" s="28"/>
-      <c r="GU64" s="28"/>
-      <c r="GV64" s="28"/>
-      <c r="GW64" s="28"/>
-      <c r="GX64" s="28"/>
-      <c r="GY64" s="28"/>
-      <c r="GZ64" s="28"/>
-      <c r="HA64" s="28"/>
-      <c r="HB64" s="28"/>
-      <c r="HC64" s="28"/>
-      <c r="HD64" s="28"/>
-      <c r="HE64" s="28"/>
-      <c r="HF64" s="28"/>
-      <c r="HG64" s="28"/>
-      <c r="HH64" s="28"/>
-      <c r="HI64" s="28"/>
-      <c r="HJ64" s="28"/>
-      <c r="HK64" s="28"/>
-      <c r="HL64" s="28"/>
-      <c r="HM64" s="28"/>
-      <c r="HN64" s="28"/>
-      <c r="HO64" s="28"/>
-      <c r="HP64" s="28"/>
-      <c r="HQ64" s="28"/>
-      <c r="HR64" s="28"/>
-      <c r="HS64" s="28"/>
-      <c r="HT64" s="28"/>
-      <c r="HU64" s="28"/>
-      <c r="HV64" s="28"/>
-      <c r="HW64" s="28"/>
-    </row>
-    <row r="65" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>113</v>
-      </c>
+      <c r="C65" s="26"/>
       <c r="D65" s="41">
-        <v>0</v>
+        <f>AVERAGE(D67,D68,D69,D66)</f>
+        <v>0.3125</v>
       </c>
       <c r="E65" s="27">
-        <v>44612</v>
+        <f>E68</f>
+        <v>44652</v>
       </c>
       <c r="F65" s="27">
-        <v>44621</v>
+        <f>F73</f>
+        <v>44656</v>
       </c>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
@@ -19089,24 +18037,24 @@
       <c r="HV65" s="28"/>
       <c r="HW65" s="28"/>
     </row>
-    <row r="66" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>85</v>
+    <row r="66" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A66" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="48" t="s">
+        <v>151</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D66" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="27">
-        <v>44585</v>
+        <v>44642</v>
       </c>
       <c r="F66" s="27">
-        <v>44607</v>
+        <v>44649</v>
       </c>
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
@@ -19334,24 +18282,24 @@
       <c r="HV66" s="28"/>
       <c r="HW66" s="28"/>
     </row>
-    <row r="67" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
-        <v>92</v>
+    <row r="67" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A67" s="47" t="s">
+        <v>89</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="D67" s="41">
         <v>0</v>
       </c>
       <c r="E67" s="27">
-        <v>44621</v>
+        <v>44665</v>
       </c>
       <c r="F67" s="27">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
@@ -19579,24 +18527,24 @@
       <c r="HV67" s="28"/>
       <c r="HW67" s="28"/>
     </row>
-    <row r="68" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>96</v>
+    <row r="68" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A68" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D68" s="41">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E68" s="27">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="F68" s="27">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
@@ -19824,24 +18772,24 @@
       <c r="HV68" s="28"/>
       <c r="HW68" s="28"/>
     </row>
-    <row r="69" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>97</v>
+    <row r="69" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A69" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D69" s="41">
         <v>0</v>
       </c>
       <c r="E69" s="27">
-        <v>44621</v>
+        <v>44665</v>
       </c>
       <c r="F69" s="27">
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
@@ -20069,24 +19017,24 @@
       <c r="HV69" s="28"/>
       <c r="HW69" s="28"/>
     </row>
-    <row r="70" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A70" s="39" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D70" s="41">
         <v>0</v>
       </c>
       <c r="E70" s="27">
-        <v>44652</v>
+        <v>44665</v>
       </c>
       <c r="F70" s="27">
-        <v>44663</v>
+        <v>44681</v>
       </c>
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
@@ -20314,24 +19262,24 @@
       <c r="HV70" s="28"/>
       <c r="HW70" s="28"/>
     </row>
-    <row r="71" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="32" t="s">
-        <v>102</v>
-      </c>
       <c r="C71" s="26" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="D71" s="41">
         <v>0</v>
       </c>
       <c r="E71" s="27">
-        <v>44663</v>
+        <v>44665</v>
       </c>
       <c r="F71" s="27">
-        <v>44663</v>
+        <v>44681</v>
       </c>
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
@@ -20559,517 +19507,515 @@
       <c r="HV71" s="28"/>
       <c r="HW71" s="28"/>
     </row>
-    <row r="72" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="A72" s="36">
+    <row r="72" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A72" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="41">
+        <v>0</v>
+      </c>
+      <c r="E72" s="27">
+        <v>44665</v>
+      </c>
+      <c r="F72" s="27">
+        <v>44681</v>
+      </c>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="28"/>
+      <c r="AA72" s="28"/>
+      <c r="AB72" s="28"/>
+      <c r="AC72" s="28"/>
+      <c r="AD72" s="28"/>
+      <c r="AE72" s="28"/>
+      <c r="AF72" s="28"/>
+      <c r="AG72" s="28"/>
+      <c r="AH72" s="28"/>
+      <c r="AI72" s="28"/>
+      <c r="AJ72" s="28"/>
+      <c r="AK72" s="28"/>
+      <c r="AL72" s="28"/>
+      <c r="AM72" s="28"/>
+      <c r="AN72" s="28"/>
+      <c r="AO72" s="28"/>
+      <c r="AP72" s="28"/>
+      <c r="AQ72" s="28"/>
+      <c r="AR72" s="28"/>
+      <c r="AS72" s="28"/>
+      <c r="AT72" s="28"/>
+      <c r="AU72" s="28"/>
+      <c r="AV72" s="28"/>
+      <c r="AW72" s="28"/>
+      <c r="AX72" s="28"/>
+      <c r="AY72" s="28"/>
+      <c r="AZ72" s="28"/>
+      <c r="BA72" s="28"/>
+      <c r="BB72" s="28"/>
+      <c r="BC72" s="28"/>
+      <c r="BD72" s="28"/>
+      <c r="BE72" s="28"/>
+      <c r="BF72" s="28"/>
+      <c r="BG72" s="28"/>
+      <c r="BH72" s="28"/>
+      <c r="BI72" s="28"/>
+      <c r="BJ72" s="28"/>
+      <c r="BK72" s="28"/>
+      <c r="BL72" s="28"/>
+      <c r="BM72" s="28"/>
+      <c r="BN72" s="28"/>
+      <c r="BO72" s="28"/>
+      <c r="BP72" s="28"/>
+      <c r="BQ72" s="28"/>
+      <c r="BR72" s="28"/>
+      <c r="BS72" s="28"/>
+      <c r="BT72" s="28"/>
+      <c r="BU72" s="28"/>
+      <c r="BV72" s="28"/>
+      <c r="BW72" s="28"/>
+      <c r="BX72" s="28"/>
+      <c r="BY72" s="28"/>
+      <c r="BZ72" s="28"/>
+      <c r="CA72" s="28"/>
+      <c r="CB72" s="28"/>
+      <c r="CC72" s="28"/>
+      <c r="CD72" s="28"/>
+      <c r="CE72" s="28"/>
+      <c r="CF72" s="28"/>
+      <c r="CG72" s="28"/>
+      <c r="CH72" s="28"/>
+      <c r="CI72" s="28"/>
+      <c r="CJ72" s="28"/>
+      <c r="CK72" s="28"/>
+      <c r="CL72" s="28"/>
+      <c r="CM72" s="28"/>
+      <c r="CN72" s="28"/>
+      <c r="CO72" s="28"/>
+      <c r="CP72" s="28"/>
+      <c r="CQ72" s="28"/>
+      <c r="CR72" s="28"/>
+      <c r="CS72" s="28"/>
+      <c r="CT72" s="28"/>
+      <c r="CU72" s="28"/>
+      <c r="CV72" s="28"/>
+      <c r="CW72" s="28"/>
+      <c r="CX72" s="28"/>
+      <c r="CY72" s="28"/>
+      <c r="CZ72" s="28"/>
+      <c r="DA72" s="28"/>
+      <c r="DB72" s="28"/>
+      <c r="DC72" s="28"/>
+      <c r="DD72" s="28"/>
+      <c r="DE72" s="28"/>
+      <c r="DF72" s="28"/>
+      <c r="DG72" s="28"/>
+      <c r="DH72" s="28"/>
+      <c r="DI72" s="28"/>
+      <c r="DJ72" s="28"/>
+      <c r="DK72" s="28"/>
+      <c r="DL72" s="28"/>
+      <c r="DM72" s="28"/>
+      <c r="DN72" s="28"/>
+      <c r="DO72" s="28"/>
+      <c r="DP72" s="28"/>
+      <c r="DQ72" s="28"/>
+      <c r="DR72" s="28"/>
+      <c r="DS72" s="28"/>
+      <c r="DT72" s="28"/>
+      <c r="DU72" s="28"/>
+      <c r="DV72" s="28"/>
+      <c r="DW72" s="28"/>
+      <c r="DX72" s="28"/>
+      <c r="DY72" s="28"/>
+      <c r="DZ72" s="28"/>
+      <c r="EA72" s="28"/>
+      <c r="EB72" s="28"/>
+      <c r="EC72" s="28"/>
+      <c r="ED72" s="28"/>
+      <c r="EE72" s="28"/>
+      <c r="EF72" s="28"/>
+      <c r="EG72" s="28"/>
+      <c r="EH72" s="28"/>
+      <c r="EI72" s="28"/>
+      <c r="EJ72" s="28"/>
+      <c r="EK72" s="28"/>
+      <c r="EL72" s="28"/>
+      <c r="EM72" s="28"/>
+      <c r="EN72" s="28"/>
+      <c r="EO72" s="28"/>
+      <c r="EP72" s="28"/>
+      <c r="EQ72" s="28"/>
+      <c r="ER72" s="28"/>
+      <c r="ES72" s="28"/>
+      <c r="ET72" s="28"/>
+      <c r="EU72" s="28"/>
+      <c r="EV72" s="28"/>
+      <c r="EW72" s="28"/>
+      <c r="EX72" s="28"/>
+      <c r="EY72" s="28"/>
+      <c r="EZ72" s="28"/>
+      <c r="FA72" s="28"/>
+      <c r="FB72" s="28"/>
+      <c r="FC72" s="28"/>
+      <c r="FD72" s="28"/>
+      <c r="FE72" s="28"/>
+      <c r="FF72" s="28"/>
+      <c r="FG72" s="28"/>
+      <c r="FH72" s="28"/>
+      <c r="FI72" s="28"/>
+      <c r="FJ72" s="28"/>
+      <c r="FK72" s="28"/>
+      <c r="FL72" s="28"/>
+      <c r="FM72" s="28"/>
+      <c r="FN72" s="28"/>
+      <c r="FO72" s="28"/>
+      <c r="FP72" s="28"/>
+      <c r="FQ72" s="28"/>
+      <c r="FR72" s="28"/>
+      <c r="FS72" s="28"/>
+      <c r="FT72" s="28"/>
+      <c r="FU72" s="28"/>
+      <c r="FV72" s="28"/>
+      <c r="FW72" s="28"/>
+      <c r="FX72" s="28"/>
+      <c r="FY72" s="28"/>
+      <c r="FZ72" s="28"/>
+      <c r="GA72" s="28"/>
+      <c r="GB72" s="28"/>
+      <c r="GC72" s="28"/>
+      <c r="GD72" s="28"/>
+      <c r="GE72" s="28"/>
+      <c r="GF72" s="28"/>
+      <c r="GG72" s="28"/>
+      <c r="GH72" s="28"/>
+      <c r="GI72" s="28"/>
+      <c r="GJ72" s="28"/>
+      <c r="GK72" s="28"/>
+      <c r="GL72" s="28"/>
+      <c r="GM72" s="28"/>
+      <c r="GN72" s="28"/>
+      <c r="GO72" s="28"/>
+      <c r="GP72" s="28"/>
+      <c r="GQ72" s="28"/>
+      <c r="GR72" s="28"/>
+      <c r="GS72" s="28"/>
+      <c r="GT72" s="28"/>
+      <c r="GU72" s="28"/>
+      <c r="GV72" s="28"/>
+      <c r="GW72" s="28"/>
+      <c r="GX72" s="28"/>
+      <c r="GY72" s="28"/>
+      <c r="GZ72" s="28"/>
+      <c r="HA72" s="28"/>
+      <c r="HB72" s="28"/>
+      <c r="HC72" s="28"/>
+      <c r="HD72" s="28"/>
+      <c r="HE72" s="28"/>
+      <c r="HF72" s="28"/>
+      <c r="HG72" s="28"/>
+      <c r="HH72" s="28"/>
+      <c r="HI72" s="28"/>
+      <c r="HJ72" s="28"/>
+      <c r="HK72" s="28"/>
+      <c r="HL72" s="28"/>
+      <c r="HM72" s="28"/>
+      <c r="HN72" s="28"/>
+      <c r="HO72" s="28"/>
+      <c r="HP72" s="28"/>
+      <c r="HQ72" s="28"/>
+      <c r="HR72" s="28"/>
+      <c r="HS72" s="28"/>
+      <c r="HT72" s="28"/>
+      <c r="HU72" s="28"/>
+      <c r="HV72" s="28"/>
+      <c r="HW72" s="28"/>
+    </row>
+    <row r="73" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A73" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="41">
+        <v>0</v>
+      </c>
+      <c r="E73" s="27">
+        <v>44665</v>
+      </c>
+      <c r="F73" s="27">
+        <v>44656</v>
+      </c>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="28"/>
+      <c r="AC73" s="28"/>
+      <c r="AD73" s="28"/>
+      <c r="AE73" s="28"/>
+      <c r="AF73" s="28"/>
+      <c r="AG73" s="28"/>
+      <c r="AH73" s="28"/>
+      <c r="AI73" s="28"/>
+      <c r="AJ73" s="28"/>
+      <c r="AK73" s="28"/>
+      <c r="AL73" s="28"/>
+      <c r="AM73" s="28"/>
+      <c r="AN73" s="28"/>
+      <c r="AO73" s="28"/>
+      <c r="AP73" s="28"/>
+      <c r="AQ73" s="28"/>
+      <c r="AR73" s="28"/>
+      <c r="AS73" s="28"/>
+      <c r="AT73" s="28"/>
+      <c r="AU73" s="28"/>
+      <c r="AV73" s="28"/>
+      <c r="AW73" s="28"/>
+      <c r="AX73" s="28"/>
+      <c r="AY73" s="28"/>
+      <c r="AZ73" s="28"/>
+      <c r="BA73" s="28"/>
+      <c r="BB73" s="28"/>
+      <c r="BC73" s="28"/>
+      <c r="BD73" s="28"/>
+      <c r="BE73" s="28"/>
+      <c r="BF73" s="28"/>
+      <c r="BG73" s="28"/>
+      <c r="BH73" s="28"/>
+      <c r="BI73" s="28"/>
+      <c r="BJ73" s="28"/>
+      <c r="BK73" s="28"/>
+      <c r="BL73" s="28"/>
+      <c r="BM73" s="28"/>
+      <c r="BN73" s="28"/>
+      <c r="BO73" s="28"/>
+      <c r="BP73" s="28"/>
+      <c r="BQ73" s="28"/>
+      <c r="BR73" s="28"/>
+      <c r="BS73" s="28"/>
+      <c r="BT73" s="28"/>
+      <c r="BU73" s="28"/>
+      <c r="BV73" s="28"/>
+      <c r="BW73" s="28"/>
+      <c r="BX73" s="28"/>
+      <c r="BY73" s="28"/>
+      <c r="BZ73" s="28"/>
+      <c r="CA73" s="28"/>
+      <c r="CB73" s="28"/>
+      <c r="CC73" s="28"/>
+      <c r="CD73" s="28"/>
+      <c r="CE73" s="28"/>
+      <c r="CF73" s="28"/>
+      <c r="CG73" s="28"/>
+      <c r="CH73" s="28"/>
+      <c r="CI73" s="28"/>
+      <c r="CJ73" s="28"/>
+      <c r="CK73" s="28"/>
+      <c r="CL73" s="28"/>
+      <c r="CM73" s="28"/>
+      <c r="CN73" s="28"/>
+      <c r="CO73" s="28"/>
+      <c r="CP73" s="28"/>
+      <c r="CQ73" s="28"/>
+      <c r="CR73" s="28"/>
+      <c r="CS73" s="28"/>
+      <c r="CT73" s="28"/>
+      <c r="CU73" s="28"/>
+      <c r="CV73" s="28"/>
+      <c r="CW73" s="28"/>
+      <c r="CX73" s="28"/>
+      <c r="CY73" s="28"/>
+      <c r="CZ73" s="28"/>
+      <c r="DA73" s="28"/>
+      <c r="DB73" s="28"/>
+      <c r="DC73" s="28"/>
+      <c r="DD73" s="28"/>
+      <c r="DE73" s="28"/>
+      <c r="DF73" s="28"/>
+      <c r="DG73" s="28"/>
+      <c r="DH73" s="28"/>
+      <c r="DI73" s="28"/>
+      <c r="DJ73" s="28"/>
+      <c r="DK73" s="28"/>
+      <c r="DL73" s="28"/>
+      <c r="DM73" s="28"/>
+      <c r="DN73" s="28"/>
+      <c r="DO73" s="28"/>
+      <c r="DP73" s="28"/>
+      <c r="DQ73" s="28"/>
+      <c r="DR73" s="28"/>
+      <c r="DS73" s="28"/>
+      <c r="DT73" s="28"/>
+      <c r="DU73" s="28"/>
+      <c r="DV73" s="28"/>
+      <c r="DW73" s="28"/>
+      <c r="DX73" s="28"/>
+      <c r="DY73" s="28"/>
+      <c r="DZ73" s="28"/>
+      <c r="EA73" s="28"/>
+      <c r="EB73" s="28"/>
+      <c r="EC73" s="28"/>
+      <c r="ED73" s="28"/>
+      <c r="EE73" s="28"/>
+      <c r="EF73" s="28"/>
+      <c r="EG73" s="28"/>
+      <c r="EH73" s="28"/>
+      <c r="EI73" s="28"/>
+      <c r="EJ73" s="28"/>
+      <c r="EK73" s="28"/>
+      <c r="EL73" s="28"/>
+      <c r="EM73" s="28"/>
+      <c r="EN73" s="28"/>
+      <c r="EO73" s="28"/>
+      <c r="EP73" s="28"/>
+      <c r="EQ73" s="28"/>
+      <c r="ER73" s="28"/>
+      <c r="ES73" s="28"/>
+      <c r="ET73" s="28"/>
+      <c r="EU73" s="28"/>
+      <c r="EV73" s="28"/>
+      <c r="EW73" s="28"/>
+      <c r="EX73" s="28"/>
+      <c r="EY73" s="28"/>
+      <c r="EZ73" s="28"/>
+      <c r="FA73" s="28"/>
+      <c r="FB73" s="28"/>
+      <c r="FC73" s="28"/>
+      <c r="FD73" s="28"/>
+      <c r="FE73" s="28"/>
+      <c r="FF73" s="28"/>
+      <c r="FG73" s="28"/>
+      <c r="FH73" s="28"/>
+      <c r="FI73" s="28"/>
+      <c r="FJ73" s="28"/>
+      <c r="FK73" s="28"/>
+      <c r="FL73" s="28"/>
+      <c r="FM73" s="28"/>
+      <c r="FN73" s="28"/>
+      <c r="FO73" s="28"/>
+      <c r="FP73" s="28"/>
+      <c r="FQ73" s="28"/>
+      <c r="FR73" s="28"/>
+      <c r="FS73" s="28"/>
+      <c r="FT73" s="28"/>
+      <c r="FU73" s="28"/>
+      <c r="FV73" s="28"/>
+      <c r="FW73" s="28"/>
+      <c r="FX73" s="28"/>
+      <c r="FY73" s="28"/>
+      <c r="FZ73" s="28"/>
+      <c r="GA73" s="28"/>
+      <c r="GB73" s="28"/>
+      <c r="GC73" s="28"/>
+      <c r="GD73" s="28"/>
+      <c r="GE73" s="28"/>
+      <c r="GF73" s="28"/>
+      <c r="GG73" s="28"/>
+      <c r="GH73" s="28"/>
+      <c r="GI73" s="28"/>
+      <c r="GJ73" s="28"/>
+      <c r="GK73" s="28"/>
+      <c r="GL73" s="28"/>
+      <c r="GM73" s="28"/>
+      <c r="GN73" s="28"/>
+      <c r="GO73" s="28"/>
+      <c r="GP73" s="28"/>
+      <c r="GQ73" s="28"/>
+      <c r="GR73" s="28"/>
+      <c r="GS73" s="28"/>
+      <c r="GT73" s="28"/>
+      <c r="GU73" s="28"/>
+      <c r="GV73" s="28"/>
+      <c r="GW73" s="28"/>
+      <c r="GX73" s="28"/>
+      <c r="GY73" s="28"/>
+      <c r="GZ73" s="28"/>
+      <c r="HA73" s="28"/>
+      <c r="HB73" s="28"/>
+      <c r="HC73" s="28"/>
+      <c r="HD73" s="28"/>
+      <c r="HE73" s="28"/>
+      <c r="HF73" s="28"/>
+      <c r="HG73" s="28"/>
+      <c r="HH73" s="28"/>
+      <c r="HI73" s="28"/>
+      <c r="HJ73" s="28"/>
+      <c r="HK73" s="28"/>
+      <c r="HL73" s="28"/>
+      <c r="HM73" s="28"/>
+      <c r="HN73" s="28"/>
+      <c r="HO73" s="28"/>
+      <c r="HP73" s="28"/>
+      <c r="HQ73" s="28"/>
+      <c r="HR73" s="28"/>
+      <c r="HS73" s="28"/>
+      <c r="HT73" s="28"/>
+      <c r="HU73" s="28"/>
+      <c r="HV73" s="28"/>
+      <c r="HW73" s="28"/>
+    </row>
+    <row r="74" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A74" s="36">
         <v>5</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B74" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="19">
-        <f>AVERAGE(D73:D79)</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E72" s="8">
-        <f>E73</f>
+      <c r="C74" s="22"/>
+      <c r="D74" s="19">
+        <f>AVERAGE(D75:D88)</f>
+        <v>1</v>
+      </c>
+      <c r="E74" s="8">
+        <f>E75</f>
         <v>44477</v>
       </c>
-      <c r="F72" s="8">
-        <f>F79</f>
+      <c r="F74" s="8">
+        <f>F88</f>
         <v>44663</v>
-      </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="10"/>
-      <c r="AD72" s="10"/>
-      <c r="AE72" s="10"/>
-      <c r="AF72" s="10"/>
-      <c r="AG72" s="10"/>
-      <c r="AH72" s="10"/>
-      <c r="AI72" s="10"/>
-      <c r="AJ72" s="10"/>
-      <c r="AK72" s="10"/>
-      <c r="AL72" s="10"/>
-      <c r="AM72" s="10"/>
-      <c r="AN72" s="10"/>
-      <c r="AO72" s="10"/>
-      <c r="AP72" s="10"/>
-      <c r="AQ72" s="10"/>
-      <c r="AR72" s="10"/>
-      <c r="AS72" s="10"/>
-      <c r="AT72" s="10"/>
-      <c r="AU72" s="10"/>
-      <c r="AV72" s="10"/>
-      <c r="AW72" s="10"/>
-      <c r="AX72" s="10"/>
-      <c r="AY72" s="10"/>
-      <c r="AZ72" s="10"/>
-      <c r="BA72" s="10"/>
-      <c r="BB72" s="10"/>
-      <c r="BC72" s="10"/>
-      <c r="BD72" s="10"/>
-      <c r="BE72" s="10"/>
-      <c r="BF72" s="10"/>
-      <c r="BG72" s="10"/>
-      <c r="BH72" s="10"/>
-      <c r="BI72" s="10"/>
-      <c r="BJ72" s="10"/>
-      <c r="BK72" s="10"/>
-      <c r="BL72" s="10"/>
-      <c r="BM72" s="10"/>
-      <c r="BN72" s="10"/>
-      <c r="BO72" s="10"/>
-      <c r="BP72" s="10"/>
-      <c r="BQ72" s="10"/>
-      <c r="BR72" s="10"/>
-      <c r="BS72" s="10"/>
-      <c r="BT72" s="10"/>
-      <c r="BU72" s="10"/>
-      <c r="BV72" s="10"/>
-      <c r="BW72" s="10"/>
-      <c r="BX72" s="10"/>
-      <c r="BY72" s="10"/>
-      <c r="BZ72" s="10"/>
-      <c r="CA72" s="10"/>
-      <c r="CB72" s="10"/>
-      <c r="CC72" s="10"/>
-      <c r="CD72" s="10"/>
-      <c r="CE72" s="10"/>
-      <c r="CF72" s="10"/>
-      <c r="CG72" s="10"/>
-      <c r="CH72" s="10"/>
-      <c r="CI72" s="10"/>
-      <c r="CJ72" s="10"/>
-      <c r="CK72" s="10"/>
-      <c r="CL72" s="10"/>
-      <c r="CM72" s="10"/>
-      <c r="CN72" s="10"/>
-      <c r="CO72" s="10"/>
-      <c r="CP72" s="10"/>
-      <c r="CQ72" s="10"/>
-      <c r="CR72" s="10"/>
-      <c r="CS72" s="10"/>
-      <c r="CT72" s="10"/>
-      <c r="CU72" s="10"/>
-      <c r="CV72" s="10"/>
-      <c r="CW72" s="10"/>
-      <c r="CX72" s="10"/>
-      <c r="CY72" s="10"/>
-      <c r="CZ72" s="10"/>
-      <c r="DA72" s="10"/>
-      <c r="DB72" s="10"/>
-      <c r="DC72" s="10"/>
-      <c r="DD72" s="10"/>
-      <c r="DE72" s="10"/>
-      <c r="DF72" s="10"/>
-      <c r="DG72" s="10"/>
-      <c r="DH72" s="10"/>
-      <c r="DI72" s="10"/>
-      <c r="DJ72" s="10"/>
-      <c r="DK72" s="10"/>
-      <c r="DL72" s="10"/>
-      <c r="DM72" s="10"/>
-      <c r="DN72" s="10"/>
-      <c r="DO72" s="10"/>
-      <c r="DP72" s="10"/>
-      <c r="DQ72" s="10"/>
-      <c r="DR72" s="10"/>
-      <c r="DS72" s="10"/>
-      <c r="DT72" s="10"/>
-      <c r="DU72" s="10"/>
-      <c r="DV72" s="10"/>
-      <c r="DW72" s="10"/>
-      <c r="DX72" s="10"/>
-      <c r="DY72" s="10"/>
-      <c r="DZ72" s="10"/>
-      <c r="EA72" s="10"/>
-      <c r="EB72" s="10"/>
-      <c r="EC72" s="10"/>
-      <c r="ED72" s="10"/>
-      <c r="EE72" s="10"/>
-      <c r="EF72" s="10"/>
-      <c r="EG72" s="10"/>
-      <c r="EH72" s="10"/>
-      <c r="EI72" s="10"/>
-      <c r="EJ72" s="10"/>
-      <c r="EK72" s="10"/>
-      <c r="EL72" s="10"/>
-      <c r="EM72" s="10"/>
-      <c r="EN72" s="10"/>
-      <c r="EO72" s="10"/>
-      <c r="EP72" s="10"/>
-      <c r="EQ72" s="10"/>
-      <c r="ER72" s="10"/>
-      <c r="ES72" s="10"/>
-      <c r="ET72" s="10"/>
-      <c r="EU72" s="10"/>
-      <c r="EV72" s="10"/>
-      <c r="EW72" s="10"/>
-      <c r="EX72" s="10"/>
-      <c r="EY72" s="10"/>
-      <c r="EZ72" s="10"/>
-      <c r="FA72" s="10"/>
-      <c r="FB72" s="10"/>
-      <c r="FC72" s="10"/>
-      <c r="FD72" s="10"/>
-      <c r="FE72" s="10"/>
-      <c r="FF72" s="10"/>
-      <c r="FG72" s="10"/>
-      <c r="FH72" s="10"/>
-      <c r="FI72" s="10"/>
-      <c r="FJ72" s="10"/>
-      <c r="FK72" s="10"/>
-      <c r="FL72" s="10"/>
-      <c r="FM72" s="10"/>
-      <c r="FN72" s="10"/>
-      <c r="FO72" s="10"/>
-      <c r="FP72" s="10"/>
-      <c r="FQ72" s="10"/>
-      <c r="FR72" s="10"/>
-      <c r="FS72" s="10"/>
-      <c r="FT72" s="10"/>
-      <c r="FU72" s="10"/>
-      <c r="FV72" s="10"/>
-      <c r="FW72" s="10"/>
-      <c r="FX72" s="10"/>
-      <c r="FY72" s="10"/>
-      <c r="FZ72" s="10"/>
-      <c r="GA72" s="10"/>
-      <c r="GB72" s="10"/>
-      <c r="GC72" s="10"/>
-      <c r="GD72" s="10"/>
-      <c r="GE72" s="10"/>
-      <c r="GF72" s="10"/>
-      <c r="GG72" s="10"/>
-      <c r="GH72" s="10"/>
-      <c r="GI72" s="10"/>
-      <c r="GJ72" s="10"/>
-      <c r="GK72" s="10"/>
-      <c r="GL72" s="10"/>
-      <c r="GM72" s="10"/>
-      <c r="GN72" s="10"/>
-      <c r="GO72" s="10"/>
-      <c r="GP72" s="10"/>
-      <c r="GQ72" s="10"/>
-      <c r="GR72" s="10"/>
-      <c r="GS72" s="10"/>
-      <c r="GT72" s="10"/>
-      <c r="GU72" s="10"/>
-      <c r="GV72" s="10"/>
-      <c r="GW72" s="10"/>
-      <c r="GX72" s="10"/>
-      <c r="GY72" s="10"/>
-      <c r="GZ72" s="10"/>
-      <c r="HA72" s="10"/>
-      <c r="HB72" s="10"/>
-      <c r="HC72" s="10"/>
-      <c r="HD72" s="10"/>
-      <c r="HE72" s="10"/>
-      <c r="HF72" s="10"/>
-      <c r="HG72" s="10"/>
-      <c r="HH72" s="10"/>
-      <c r="HI72" s="10"/>
-      <c r="HJ72" s="10"/>
-      <c r="HK72" s="10"/>
-      <c r="HL72" s="10"/>
-      <c r="HM72" s="10"/>
-      <c r="HN72" s="10"/>
-      <c r="HO72" s="10"/>
-      <c r="HP72" s="10"/>
-      <c r="HQ72" s="10"/>
-      <c r="HR72" s="10"/>
-      <c r="HS72" s="10"/>
-      <c r="HT72" s="10"/>
-      <c r="HU72" s="10"/>
-      <c r="HV72" s="10"/>
-      <c r="HW72" s="10"/>
-    </row>
-    <row r="73" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="A73" s="37">
-        <f>A72+0.1</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="19">
-        <v>1</v>
-      </c>
-      <c r="E73" s="8">
-        <v>44477</v>
-      </c>
-      <c r="F73" s="8">
-        <v>44491</v>
-      </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="10"/>
-      <c r="Z73" s="10"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="10"/>
-      <c r="AC73" s="10"/>
-      <c r="AD73" s="10"/>
-      <c r="AE73" s="10"/>
-      <c r="AF73" s="10"/>
-      <c r="AG73" s="10"/>
-      <c r="AH73" s="10"/>
-      <c r="AI73" s="10"/>
-      <c r="AJ73" s="10"/>
-      <c r="AK73" s="10"/>
-      <c r="AL73" s="10"/>
-      <c r="AM73" s="10"/>
-      <c r="AN73" s="10"/>
-      <c r="AO73" s="10"/>
-      <c r="AP73" s="10"/>
-      <c r="AQ73" s="10"/>
-      <c r="AR73" s="10"/>
-      <c r="AS73" s="10"/>
-      <c r="AT73" s="10"/>
-      <c r="AU73" s="10"/>
-      <c r="AV73" s="10"/>
-      <c r="AW73" s="10"/>
-      <c r="AX73" s="10"/>
-      <c r="AY73" s="10"/>
-      <c r="AZ73" s="10"/>
-      <c r="BA73" s="10"/>
-      <c r="BB73" s="10"/>
-      <c r="BC73" s="10"/>
-      <c r="BD73" s="10"/>
-      <c r="BE73" s="10"/>
-      <c r="BF73" s="10"/>
-      <c r="BG73" s="10"/>
-      <c r="BH73" s="10"/>
-      <c r="BI73" s="10"/>
-      <c r="BJ73" s="10"/>
-      <c r="BK73" s="10"/>
-      <c r="BL73" s="10"/>
-      <c r="BM73" s="10"/>
-      <c r="BN73" s="10"/>
-      <c r="BO73" s="10"/>
-      <c r="BP73" s="10"/>
-      <c r="BQ73" s="10"/>
-      <c r="BR73" s="10"/>
-      <c r="BS73" s="10"/>
-      <c r="BT73" s="10"/>
-      <c r="BU73" s="10"/>
-      <c r="BV73" s="10"/>
-      <c r="BW73" s="10"/>
-      <c r="BX73" s="10"/>
-      <c r="BY73" s="10"/>
-      <c r="BZ73" s="10"/>
-      <c r="CA73" s="10"/>
-      <c r="CB73" s="10"/>
-      <c r="CC73" s="10"/>
-      <c r="CD73" s="10"/>
-      <c r="CE73" s="10"/>
-      <c r="CF73" s="10"/>
-      <c r="CG73" s="10"/>
-      <c r="CH73" s="10"/>
-      <c r="CI73" s="10"/>
-      <c r="CJ73" s="10"/>
-      <c r="CK73" s="10"/>
-      <c r="CL73" s="10"/>
-      <c r="CM73" s="10"/>
-      <c r="CN73" s="10"/>
-      <c r="CO73" s="10"/>
-      <c r="CP73" s="10"/>
-      <c r="CQ73" s="10"/>
-      <c r="CR73" s="10"/>
-      <c r="CS73" s="10"/>
-      <c r="CT73" s="10"/>
-      <c r="CU73" s="10"/>
-      <c r="CV73" s="10"/>
-      <c r="CW73" s="10"/>
-      <c r="CX73" s="10"/>
-      <c r="CY73" s="10"/>
-      <c r="CZ73" s="10"/>
-      <c r="DA73" s="10"/>
-      <c r="DB73" s="10"/>
-      <c r="DC73" s="10"/>
-      <c r="DD73" s="10"/>
-      <c r="DE73" s="10"/>
-      <c r="DF73" s="10"/>
-      <c r="DG73" s="10"/>
-      <c r="DH73" s="10"/>
-      <c r="DI73" s="10"/>
-      <c r="DJ73" s="10"/>
-      <c r="DK73" s="10"/>
-      <c r="DL73" s="10"/>
-      <c r="DM73" s="10"/>
-      <c r="DN73" s="10"/>
-      <c r="DO73" s="10"/>
-      <c r="DP73" s="10"/>
-      <c r="DQ73" s="10"/>
-      <c r="DR73" s="10"/>
-      <c r="DS73" s="10"/>
-      <c r="DT73" s="10"/>
-      <c r="DU73" s="10"/>
-      <c r="DV73" s="10"/>
-      <c r="DW73" s="10"/>
-      <c r="DX73" s="10"/>
-      <c r="DY73" s="10"/>
-      <c r="DZ73" s="10"/>
-      <c r="EA73" s="10"/>
-      <c r="EB73" s="10"/>
-      <c r="EC73" s="10"/>
-      <c r="ED73" s="10"/>
-      <c r="EE73" s="10"/>
-      <c r="EF73" s="10"/>
-      <c r="EG73" s="10"/>
-      <c r="EH73" s="10"/>
-      <c r="EI73" s="10"/>
-      <c r="EJ73" s="10"/>
-      <c r="EK73" s="10"/>
-      <c r="EL73" s="10"/>
-      <c r="EM73" s="10"/>
-      <c r="EN73" s="10"/>
-      <c r="EO73" s="10"/>
-      <c r="EP73" s="10"/>
-      <c r="EQ73" s="10"/>
-      <c r="ER73" s="10"/>
-      <c r="ES73" s="10"/>
-      <c r="ET73" s="10"/>
-      <c r="EU73" s="10"/>
-      <c r="EV73" s="10"/>
-      <c r="EW73" s="10"/>
-      <c r="EX73" s="10"/>
-      <c r="EY73" s="10"/>
-      <c r="EZ73" s="10"/>
-      <c r="FA73" s="10"/>
-      <c r="FB73" s="10"/>
-      <c r="FC73" s="10"/>
-      <c r="FD73" s="10"/>
-      <c r="FE73" s="10"/>
-      <c r="FF73" s="10"/>
-      <c r="FG73" s="10"/>
-      <c r="FH73" s="10"/>
-      <c r="FI73" s="10"/>
-      <c r="FJ73" s="10"/>
-      <c r="FK73" s="10"/>
-      <c r="FL73" s="10"/>
-      <c r="FM73" s="10"/>
-      <c r="FN73" s="10"/>
-      <c r="FO73" s="10"/>
-      <c r="FP73" s="10"/>
-      <c r="FQ73" s="10"/>
-      <c r="FR73" s="10"/>
-      <c r="FS73" s="10"/>
-      <c r="FT73" s="10"/>
-      <c r="FU73" s="10"/>
-      <c r="FV73" s="10"/>
-      <c r="FW73" s="10"/>
-      <c r="FX73" s="10"/>
-      <c r="FY73" s="10"/>
-      <c r="FZ73" s="10"/>
-      <c r="GA73" s="10"/>
-      <c r="GB73" s="10"/>
-      <c r="GC73" s="10"/>
-      <c r="GD73" s="10"/>
-      <c r="GE73" s="10"/>
-      <c r="GF73" s="10"/>
-      <c r="GG73" s="10"/>
-      <c r="GH73" s="10"/>
-      <c r="GI73" s="10"/>
-      <c r="GJ73" s="10"/>
-      <c r="GK73" s="10"/>
-      <c r="GL73" s="10"/>
-      <c r="GM73" s="10"/>
-      <c r="GN73" s="10"/>
-      <c r="GO73" s="10"/>
-      <c r="GP73" s="10"/>
-      <c r="GQ73" s="10"/>
-      <c r="GR73" s="10"/>
-      <c r="GS73" s="10"/>
-      <c r="GT73" s="10"/>
-      <c r="GU73" s="10"/>
-      <c r="GV73" s="10"/>
-      <c r="GW73" s="10"/>
-      <c r="GX73" s="10"/>
-      <c r="GY73" s="10"/>
-      <c r="GZ73" s="10"/>
-      <c r="HA73" s="10"/>
-      <c r="HB73" s="10"/>
-      <c r="HC73" s="10"/>
-      <c r="HD73" s="10"/>
-      <c r="HE73" s="10"/>
-      <c r="HF73" s="10"/>
-      <c r="HG73" s="10"/>
-      <c r="HH73" s="10"/>
-      <c r="HI73" s="10"/>
-      <c r="HJ73" s="10"/>
-      <c r="HK73" s="10"/>
-      <c r="HL73" s="10"/>
-      <c r="HM73" s="10"/>
-      <c r="HN73" s="10"/>
-      <c r="HO73" s="10"/>
-      <c r="HP73" s="10"/>
-      <c r="HQ73" s="10"/>
-      <c r="HR73" s="10"/>
-      <c r="HS73" s="10"/>
-      <c r="HT73" s="10"/>
-      <c r="HU73" s="10"/>
-      <c r="HV73" s="10"/>
-      <c r="HW73" s="10"/>
-    </row>
-    <row r="74" spans="1:231" x14ac:dyDescent="0.25">
-      <c r="A74" s="37">
-        <f t="shared" ref="A74:A78" si="133">A73+0.1</f>
-        <v>5.1999999999999993</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="19">
-        <v>1</v>
-      </c>
-      <c r="E74" s="8">
-        <v>44526</v>
-      </c>
-      <c r="F74" s="8">
-        <v>44531</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="10"/>
@@ -21297,13 +20243,13 @@
       <c r="HV74" s="10"/>
       <c r="HW74" s="10"/>
     </row>
-    <row r="75" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A75" s="37">
-        <f t="shared" si="133"/>
-        <v>5.2999999999999989</v>
+        <f>A74+0.1</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>17</v>
@@ -21312,10 +20258,10 @@
         <v>1</v>
       </c>
       <c r="E75" s="8">
-        <v>44513</v>
+        <v>44477</v>
       </c>
       <c r="F75" s="8">
-        <v>44540</v>
+        <v>44491</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="10"/>
@@ -21543,13 +20489,13 @@
       <c r="HV75" s="10"/>
       <c r="HW75" s="10"/>
     </row>
-    <row r="76" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A76" s="37">
-        <f t="shared" si="133"/>
-        <v>5.3999999999999986</v>
+        <f t="shared" ref="A76:A79" si="133">A75+0.1</f>
+        <v>5.1999999999999993</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>17</v>
@@ -21558,10 +20504,10 @@
         <v>1</v>
       </c>
       <c r="E76" s="8">
-        <v>44535</v>
+        <v>44526</v>
       </c>
       <c r="F76" s="8">
-        <v>44535</v>
+        <v>44531</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="10"/>
@@ -21789,13 +20735,13 @@
       <c r="HV76" s="10"/>
       <c r="HW76" s="10"/>
     </row>
-    <row r="77" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A77" s="37">
         <f t="shared" si="133"/>
-        <v>5.4999999999999982</v>
+        <v>5.2999999999999989</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C77" s="22" t="s">
         <v>17</v>
@@ -21804,7 +20750,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="8">
-        <v>44529</v>
+        <v>44513</v>
       </c>
       <c r="F77" s="8">
         <v>44540</v>
@@ -22035,25 +20981,25 @@
       <c r="HV77" s="10"/>
       <c r="HW77" s="10"/>
     </row>
-    <row r="78" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A78" s="37">
         <f t="shared" si="133"/>
-        <v>5.5999999999999979</v>
+        <v>5.3999999999999986</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="8">
-        <v>44652</v>
+        <v>44535</v>
       </c>
       <c r="F78" s="8">
-        <v>44663</v>
+        <v>44535</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
@@ -22281,25 +21227,25 @@
       <c r="HV78" s="10"/>
       <c r="HW78" s="10"/>
     </row>
-    <row r="79" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:231" x14ac:dyDescent="0.3">
       <c r="A79" s="37">
-        <f>A78+0.1</f>
-        <v>5.6999999999999975</v>
+        <f t="shared" si="133"/>
+        <v>5.4999999999999982</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="8">
-        <v>44612</v>
+        <v>44529</v>
       </c>
       <c r="F79" s="8">
-        <v>44663</v>
+        <v>44540</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="10"/>
@@ -22527,6 +21473,2212 @@
       <c r="HV79" s="10"/>
       <c r="HW79" s="10"/>
     </row>
+    <row r="80" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A80" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="19">
+        <v>1</v>
+      </c>
+      <c r="E80" s="8">
+        <v>44594</v>
+      </c>
+      <c r="F80" s="8">
+        <v>44602</v>
+      </c>
+      <c r="G80" s="9"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="10"/>
+      <c r="AF80" s="10"/>
+      <c r="AG80" s="10"/>
+      <c r="AH80" s="10"/>
+      <c r="AI80" s="10"/>
+      <c r="AJ80" s="10"/>
+      <c r="AK80" s="10"/>
+      <c r="AL80" s="10"/>
+      <c r="AM80" s="10"/>
+      <c r="AN80" s="10"/>
+      <c r="AO80" s="10"/>
+      <c r="AP80" s="10"/>
+      <c r="AQ80" s="10"/>
+      <c r="AR80" s="10"/>
+      <c r="AS80" s="10"/>
+      <c r="AT80" s="10"/>
+      <c r="AU80" s="10"/>
+      <c r="AV80" s="10"/>
+      <c r="AW80" s="10"/>
+      <c r="AX80" s="10"/>
+      <c r="AY80" s="10"/>
+      <c r="AZ80" s="10"/>
+      <c r="BA80" s="10"/>
+      <c r="BB80" s="10"/>
+      <c r="BC80" s="10"/>
+      <c r="BD80" s="10"/>
+      <c r="BE80" s="10"/>
+      <c r="BF80" s="10"/>
+      <c r="BG80" s="10"/>
+      <c r="BH80" s="10"/>
+      <c r="BI80" s="10"/>
+      <c r="BJ80" s="10"/>
+      <c r="BK80" s="10"/>
+      <c r="BL80" s="10"/>
+      <c r="BM80" s="10"/>
+      <c r="BN80" s="10"/>
+      <c r="BO80" s="10"/>
+      <c r="BP80" s="10"/>
+      <c r="BQ80" s="10"/>
+      <c r="BR80" s="10"/>
+      <c r="BS80" s="10"/>
+      <c r="BT80" s="10"/>
+      <c r="BU80" s="10"/>
+      <c r="BV80" s="10"/>
+      <c r="BW80" s="10"/>
+      <c r="BX80" s="10"/>
+      <c r="BY80" s="10"/>
+      <c r="BZ80" s="10"/>
+      <c r="CA80" s="10"/>
+      <c r="CB80" s="10"/>
+      <c r="CC80" s="10"/>
+      <c r="CD80" s="10"/>
+      <c r="CE80" s="10"/>
+      <c r="CF80" s="10"/>
+      <c r="CG80" s="10"/>
+      <c r="CH80" s="10"/>
+      <c r="CI80" s="10"/>
+      <c r="CJ80" s="10"/>
+      <c r="CK80" s="10"/>
+      <c r="CL80" s="10"/>
+      <c r="CM80" s="10"/>
+      <c r="CN80" s="10"/>
+      <c r="CO80" s="10"/>
+      <c r="CP80" s="10"/>
+      <c r="CQ80" s="10"/>
+      <c r="CR80" s="10"/>
+      <c r="CS80" s="10"/>
+      <c r="CT80" s="10"/>
+      <c r="CU80" s="10"/>
+      <c r="CV80" s="10"/>
+      <c r="CW80" s="10"/>
+      <c r="CX80" s="10"/>
+      <c r="CY80" s="10"/>
+      <c r="CZ80" s="10"/>
+      <c r="DA80" s="10"/>
+      <c r="DB80" s="10"/>
+      <c r="DC80" s="10"/>
+      <c r="DD80" s="10"/>
+      <c r="DE80" s="10"/>
+      <c r="DF80" s="10"/>
+      <c r="DG80" s="10"/>
+      <c r="DH80" s="10"/>
+      <c r="DI80" s="10"/>
+      <c r="DJ80" s="10"/>
+      <c r="DK80" s="10"/>
+      <c r="DL80" s="10"/>
+      <c r="DM80" s="10"/>
+      <c r="DN80" s="10"/>
+      <c r="DO80" s="10"/>
+      <c r="DP80" s="10"/>
+      <c r="DQ80" s="10"/>
+      <c r="DR80" s="10"/>
+      <c r="DS80" s="10"/>
+      <c r="DT80" s="10"/>
+      <c r="DU80" s="10"/>
+      <c r="DV80" s="10"/>
+      <c r="DW80" s="10"/>
+      <c r="DX80" s="10"/>
+      <c r="DY80" s="10"/>
+      <c r="DZ80" s="10"/>
+      <c r="EA80" s="10"/>
+      <c r="EB80" s="10"/>
+      <c r="EC80" s="10"/>
+      <c r="ED80" s="10"/>
+      <c r="EE80" s="10"/>
+      <c r="EF80" s="10"/>
+      <c r="EG80" s="10"/>
+      <c r="EH80" s="10"/>
+      <c r="EI80" s="10"/>
+      <c r="EJ80" s="10"/>
+      <c r="EK80" s="10"/>
+      <c r="EL80" s="10"/>
+      <c r="EM80" s="10"/>
+      <c r="EN80" s="10"/>
+      <c r="EO80" s="10"/>
+      <c r="EP80" s="10"/>
+      <c r="EQ80" s="10"/>
+      <c r="ER80" s="10"/>
+      <c r="ES80" s="10"/>
+      <c r="ET80" s="10"/>
+      <c r="EU80" s="10"/>
+      <c r="EV80" s="10"/>
+      <c r="EW80" s="10"/>
+      <c r="EX80" s="10"/>
+      <c r="EY80" s="10"/>
+      <c r="EZ80" s="10"/>
+      <c r="FA80" s="10"/>
+      <c r="FB80" s="10"/>
+      <c r="FC80" s="10"/>
+      <c r="FD80" s="10"/>
+      <c r="FE80" s="10"/>
+      <c r="FF80" s="10"/>
+      <c r="FG80" s="10"/>
+      <c r="FH80" s="10"/>
+      <c r="FI80" s="10"/>
+      <c r="FJ80" s="10"/>
+      <c r="FK80" s="10"/>
+      <c r="FL80" s="10"/>
+      <c r="FM80" s="10"/>
+      <c r="FN80" s="10"/>
+      <c r="FO80" s="10"/>
+      <c r="FP80" s="10"/>
+      <c r="FQ80" s="10"/>
+      <c r="FR80" s="10"/>
+      <c r="FS80" s="10"/>
+      <c r="FT80" s="10"/>
+      <c r="FU80" s="10"/>
+      <c r="FV80" s="10"/>
+      <c r="FW80" s="10"/>
+      <c r="FX80" s="10"/>
+      <c r="FY80" s="10"/>
+      <c r="FZ80" s="10"/>
+      <c r="GA80" s="10"/>
+      <c r="GB80" s="10"/>
+      <c r="GC80" s="10"/>
+      <c r="GD80" s="10"/>
+      <c r="GE80" s="10"/>
+      <c r="GF80" s="10"/>
+      <c r="GG80" s="10"/>
+      <c r="GH80" s="10"/>
+      <c r="GI80" s="10"/>
+      <c r="GJ80" s="10"/>
+      <c r="GK80" s="10"/>
+      <c r="GL80" s="10"/>
+      <c r="GM80" s="10"/>
+      <c r="GN80" s="10"/>
+      <c r="GO80" s="10"/>
+      <c r="GP80" s="10"/>
+      <c r="GQ80" s="10"/>
+      <c r="GR80" s="10"/>
+      <c r="GS80" s="10"/>
+      <c r="GT80" s="10"/>
+      <c r="GU80" s="10"/>
+      <c r="GV80" s="10"/>
+      <c r="GW80" s="10"/>
+      <c r="GX80" s="10"/>
+      <c r="GY80" s="10"/>
+      <c r="GZ80" s="10"/>
+      <c r="HA80" s="10"/>
+      <c r="HB80" s="10"/>
+      <c r="HC80" s="10"/>
+      <c r="HD80" s="10"/>
+      <c r="HE80" s="10"/>
+      <c r="HF80" s="10"/>
+      <c r="HG80" s="10"/>
+      <c r="HH80" s="10"/>
+      <c r="HI80" s="10"/>
+      <c r="HJ80" s="10"/>
+      <c r="HK80" s="10"/>
+      <c r="HL80" s="10"/>
+      <c r="HM80" s="10"/>
+      <c r="HN80" s="10"/>
+      <c r="HO80" s="10"/>
+      <c r="HP80" s="10"/>
+      <c r="HQ80" s="10"/>
+      <c r="HR80" s="10"/>
+      <c r="HS80" s="10"/>
+      <c r="HT80" s="10"/>
+      <c r="HU80" s="10"/>
+      <c r="HV80" s="10"/>
+      <c r="HW80" s="10"/>
+    </row>
+    <row r="81" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A81" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="19">
+        <f>AVERAGE(D82:D84)</f>
+        <v>1</v>
+      </c>
+      <c r="E81" s="8">
+        <v>44638</v>
+      </c>
+      <c r="F81" s="8">
+        <v>44656</v>
+      </c>
+      <c r="G81" s="9"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="10"/>
+      <c r="AB81" s="10"/>
+      <c r="AC81" s="10"/>
+      <c r="AD81" s="10"/>
+      <c r="AE81" s="10"/>
+      <c r="AF81" s="10"/>
+      <c r="AG81" s="10"/>
+      <c r="AH81" s="10"/>
+      <c r="AI81" s="10"/>
+      <c r="AJ81" s="10"/>
+      <c r="AK81" s="10"/>
+      <c r="AL81" s="10"/>
+      <c r="AM81" s="10"/>
+      <c r="AN81" s="10"/>
+      <c r="AO81" s="10"/>
+      <c r="AP81" s="10"/>
+      <c r="AQ81" s="10"/>
+      <c r="AR81" s="10"/>
+      <c r="AS81" s="10"/>
+      <c r="AT81" s="10"/>
+      <c r="AU81" s="10"/>
+      <c r="AV81" s="10"/>
+      <c r="AW81" s="10"/>
+      <c r="AX81" s="10"/>
+      <c r="AY81" s="10"/>
+      <c r="AZ81" s="10"/>
+      <c r="BA81" s="10"/>
+      <c r="BB81" s="10"/>
+      <c r="BC81" s="10"/>
+      <c r="BD81" s="10"/>
+      <c r="BE81" s="10"/>
+      <c r="BF81" s="10"/>
+      <c r="BG81" s="10"/>
+      <c r="BH81" s="10"/>
+      <c r="BI81" s="10"/>
+      <c r="BJ81" s="10"/>
+      <c r="BK81" s="10"/>
+      <c r="BL81" s="10"/>
+      <c r="BM81" s="10"/>
+      <c r="BN81" s="10"/>
+      <c r="BO81" s="10"/>
+      <c r="BP81" s="10"/>
+      <c r="BQ81" s="10"/>
+      <c r="BR81" s="10"/>
+      <c r="BS81" s="10"/>
+      <c r="BT81" s="10"/>
+      <c r="BU81" s="10"/>
+      <c r="BV81" s="10"/>
+      <c r="BW81" s="10"/>
+      <c r="BX81" s="10"/>
+      <c r="BY81" s="10"/>
+      <c r="BZ81" s="10"/>
+      <c r="CA81" s="10"/>
+      <c r="CB81" s="10"/>
+      <c r="CC81" s="10"/>
+      <c r="CD81" s="10"/>
+      <c r="CE81" s="10"/>
+      <c r="CF81" s="10"/>
+      <c r="CG81" s="10"/>
+      <c r="CH81" s="10"/>
+      <c r="CI81" s="10"/>
+      <c r="CJ81" s="10"/>
+      <c r="CK81" s="10"/>
+      <c r="CL81" s="10"/>
+      <c r="CM81" s="10"/>
+      <c r="CN81" s="10"/>
+      <c r="CO81" s="10"/>
+      <c r="CP81" s="10"/>
+      <c r="CQ81" s="10"/>
+      <c r="CR81" s="10"/>
+      <c r="CS81" s="10"/>
+      <c r="CT81" s="10"/>
+      <c r="CU81" s="10"/>
+      <c r="CV81" s="10"/>
+      <c r="CW81" s="10"/>
+      <c r="CX81" s="10"/>
+      <c r="CY81" s="10"/>
+      <c r="CZ81" s="10"/>
+      <c r="DA81" s="10"/>
+      <c r="DB81" s="10"/>
+      <c r="DC81" s="10"/>
+      <c r="DD81" s="10"/>
+      <c r="DE81" s="10"/>
+      <c r="DF81" s="10"/>
+      <c r="DG81" s="10"/>
+      <c r="DH81" s="10"/>
+      <c r="DI81" s="10"/>
+      <c r="DJ81" s="10"/>
+      <c r="DK81" s="10"/>
+      <c r="DL81" s="10"/>
+      <c r="DM81" s="10"/>
+      <c r="DN81" s="10"/>
+      <c r="DO81" s="10"/>
+      <c r="DP81" s="10"/>
+      <c r="DQ81" s="10"/>
+      <c r="DR81" s="10"/>
+      <c r="DS81" s="10"/>
+      <c r="DT81" s="10"/>
+      <c r="DU81" s="10"/>
+      <c r="DV81" s="10"/>
+      <c r="DW81" s="10"/>
+      <c r="DX81" s="10"/>
+      <c r="DY81" s="10"/>
+      <c r="DZ81" s="10"/>
+      <c r="EA81" s="10"/>
+      <c r="EB81" s="10"/>
+      <c r="EC81" s="10"/>
+      <c r="ED81" s="10"/>
+      <c r="EE81" s="10"/>
+      <c r="EF81" s="10"/>
+      <c r="EG81" s="10"/>
+      <c r="EH81" s="10"/>
+      <c r="EI81" s="10"/>
+      <c r="EJ81" s="10"/>
+      <c r="EK81" s="10"/>
+      <c r="EL81" s="10"/>
+      <c r="EM81" s="10"/>
+      <c r="EN81" s="10"/>
+      <c r="EO81" s="10"/>
+      <c r="EP81" s="10"/>
+      <c r="EQ81" s="10"/>
+      <c r="ER81" s="10"/>
+      <c r="ES81" s="10"/>
+      <c r="ET81" s="10"/>
+      <c r="EU81" s="10"/>
+      <c r="EV81" s="10"/>
+      <c r="EW81" s="10"/>
+      <c r="EX81" s="10"/>
+      <c r="EY81" s="10"/>
+      <c r="EZ81" s="10"/>
+      <c r="FA81" s="10"/>
+      <c r="FB81" s="10"/>
+      <c r="FC81" s="10"/>
+      <c r="FD81" s="10"/>
+      <c r="FE81" s="10"/>
+      <c r="FF81" s="10"/>
+      <c r="FG81" s="10"/>
+      <c r="FH81" s="10"/>
+      <c r="FI81" s="10"/>
+      <c r="FJ81" s="10"/>
+      <c r="FK81" s="10"/>
+      <c r="FL81" s="10"/>
+      <c r="FM81" s="10"/>
+      <c r="FN81" s="10"/>
+      <c r="FO81" s="10"/>
+      <c r="FP81" s="10"/>
+      <c r="FQ81" s="10"/>
+      <c r="FR81" s="10"/>
+      <c r="FS81" s="10"/>
+      <c r="FT81" s="10"/>
+      <c r="FU81" s="10"/>
+      <c r="FV81" s="10"/>
+      <c r="FW81" s="10"/>
+      <c r="FX81" s="10"/>
+      <c r="FY81" s="10"/>
+      <c r="FZ81" s="10"/>
+      <c r="GA81" s="10"/>
+      <c r="GB81" s="10"/>
+      <c r="GC81" s="10"/>
+      <c r="GD81" s="10"/>
+      <c r="GE81" s="10"/>
+      <c r="GF81" s="10"/>
+      <c r="GG81" s="10"/>
+      <c r="GH81" s="10"/>
+      <c r="GI81" s="10"/>
+      <c r="GJ81" s="10"/>
+      <c r="GK81" s="10"/>
+      <c r="GL81" s="10"/>
+      <c r="GM81" s="10"/>
+      <c r="GN81" s="10"/>
+      <c r="GO81" s="10"/>
+      <c r="GP81" s="10"/>
+      <c r="GQ81" s="10"/>
+      <c r="GR81" s="10"/>
+      <c r="GS81" s="10"/>
+      <c r="GT81" s="10"/>
+      <c r="GU81" s="10"/>
+      <c r="GV81" s="10"/>
+      <c r="GW81" s="10"/>
+      <c r="GX81" s="10"/>
+      <c r="GY81" s="10"/>
+      <c r="GZ81" s="10"/>
+      <c r="HA81" s="10"/>
+      <c r="HB81" s="10"/>
+      <c r="HC81" s="10"/>
+      <c r="HD81" s="10"/>
+      <c r="HE81" s="10"/>
+      <c r="HF81" s="10"/>
+      <c r="HG81" s="10"/>
+      <c r="HH81" s="10"/>
+      <c r="HI81" s="10"/>
+      <c r="HJ81" s="10"/>
+      <c r="HK81" s="10"/>
+      <c r="HL81" s="10"/>
+      <c r="HM81" s="10"/>
+      <c r="HN81" s="10"/>
+      <c r="HO81" s="10"/>
+      <c r="HP81" s="10"/>
+      <c r="HQ81" s="10"/>
+      <c r="HR81" s="10"/>
+      <c r="HS81" s="10"/>
+      <c r="HT81" s="10"/>
+      <c r="HU81" s="10"/>
+      <c r="HV81" s="10"/>
+      <c r="HW81" s="10"/>
+    </row>
+    <row r="82" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A82" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="19">
+        <v>1</v>
+      </c>
+      <c r="E82" s="8">
+        <v>44638</v>
+      </c>
+      <c r="F82" s="8">
+        <v>44652</v>
+      </c>
+      <c r="G82" s="9"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+      <c r="Z82" s="10"/>
+      <c r="AA82" s="10"/>
+      <c r="AB82" s="10"/>
+      <c r="AC82" s="10"/>
+      <c r="AD82" s="10"/>
+      <c r="AE82" s="10"/>
+      <c r="AF82" s="10"/>
+      <c r="AG82" s="10"/>
+      <c r="AH82" s="10"/>
+      <c r="AI82" s="10"/>
+      <c r="AJ82" s="10"/>
+      <c r="AK82" s="10"/>
+      <c r="AL82" s="10"/>
+      <c r="AM82" s="10"/>
+      <c r="AN82" s="10"/>
+      <c r="AO82" s="10"/>
+      <c r="AP82" s="10"/>
+      <c r="AQ82" s="10"/>
+      <c r="AR82" s="10"/>
+      <c r="AS82" s="10"/>
+      <c r="AT82" s="10"/>
+      <c r="AU82" s="10"/>
+      <c r="AV82" s="10"/>
+      <c r="AW82" s="10"/>
+      <c r="AX82" s="10"/>
+      <c r="AY82" s="10"/>
+      <c r="AZ82" s="10"/>
+      <c r="BA82" s="10"/>
+      <c r="BB82" s="10"/>
+      <c r="BC82" s="10"/>
+      <c r="BD82" s="10"/>
+      <c r="BE82" s="10"/>
+      <c r="BF82" s="10"/>
+      <c r="BG82" s="10"/>
+      <c r="BH82" s="10"/>
+      <c r="BI82" s="10"/>
+      <c r="BJ82" s="10"/>
+      <c r="BK82" s="10"/>
+      <c r="BL82" s="10"/>
+      <c r="BM82" s="10"/>
+      <c r="BN82" s="10"/>
+      <c r="BO82" s="10"/>
+      <c r="BP82" s="10"/>
+      <c r="BQ82" s="10"/>
+      <c r="BR82" s="10"/>
+      <c r="BS82" s="10"/>
+      <c r="BT82" s="10"/>
+      <c r="BU82" s="10"/>
+      <c r="BV82" s="10"/>
+      <c r="BW82" s="10"/>
+      <c r="BX82" s="10"/>
+      <c r="BY82" s="10"/>
+      <c r="BZ82" s="10"/>
+      <c r="CA82" s="10"/>
+      <c r="CB82" s="10"/>
+      <c r="CC82" s="10"/>
+      <c r="CD82" s="10"/>
+      <c r="CE82" s="10"/>
+      <c r="CF82" s="10"/>
+      <c r="CG82" s="10"/>
+      <c r="CH82" s="10"/>
+      <c r="CI82" s="10"/>
+      <c r="CJ82" s="10"/>
+      <c r="CK82" s="10"/>
+      <c r="CL82" s="10"/>
+      <c r="CM82" s="10"/>
+      <c r="CN82" s="10"/>
+      <c r="CO82" s="10"/>
+      <c r="CP82" s="10"/>
+      <c r="CQ82" s="10"/>
+      <c r="CR82" s="10"/>
+      <c r="CS82" s="10"/>
+      <c r="CT82" s="10"/>
+      <c r="CU82" s="10"/>
+      <c r="CV82" s="10"/>
+      <c r="CW82" s="10"/>
+      <c r="CX82" s="10"/>
+      <c r="CY82" s="10"/>
+      <c r="CZ82" s="10"/>
+      <c r="DA82" s="10"/>
+      <c r="DB82" s="10"/>
+      <c r="DC82" s="10"/>
+      <c r="DD82" s="10"/>
+      <c r="DE82" s="10"/>
+      <c r="DF82" s="10"/>
+      <c r="DG82" s="10"/>
+      <c r="DH82" s="10"/>
+      <c r="DI82" s="10"/>
+      <c r="DJ82" s="10"/>
+      <c r="DK82" s="10"/>
+      <c r="DL82" s="10"/>
+      <c r="DM82" s="10"/>
+      <c r="DN82" s="10"/>
+      <c r="DO82" s="10"/>
+      <c r="DP82" s="10"/>
+      <c r="DQ82" s="10"/>
+      <c r="DR82" s="10"/>
+      <c r="DS82" s="10"/>
+      <c r="DT82" s="10"/>
+      <c r="DU82" s="10"/>
+      <c r="DV82" s="10"/>
+      <c r="DW82" s="10"/>
+      <c r="DX82" s="10"/>
+      <c r="DY82" s="10"/>
+      <c r="DZ82" s="10"/>
+      <c r="EA82" s="10"/>
+      <c r="EB82" s="10"/>
+      <c r="EC82" s="10"/>
+      <c r="ED82" s="10"/>
+      <c r="EE82" s="10"/>
+      <c r="EF82" s="10"/>
+      <c r="EG82" s="10"/>
+      <c r="EH82" s="10"/>
+      <c r="EI82" s="10"/>
+      <c r="EJ82" s="10"/>
+      <c r="EK82" s="10"/>
+      <c r="EL82" s="10"/>
+      <c r="EM82" s="10"/>
+      <c r="EN82" s="10"/>
+      <c r="EO82" s="10"/>
+      <c r="EP82" s="10"/>
+      <c r="EQ82" s="10"/>
+      <c r="ER82" s="10"/>
+      <c r="ES82" s="10"/>
+      <c r="ET82" s="10"/>
+      <c r="EU82" s="10"/>
+      <c r="EV82" s="10"/>
+      <c r="EW82" s="10"/>
+      <c r="EX82" s="10"/>
+      <c r="EY82" s="10"/>
+      <c r="EZ82" s="10"/>
+      <c r="FA82" s="10"/>
+      <c r="FB82" s="10"/>
+      <c r="FC82" s="10"/>
+      <c r="FD82" s="10"/>
+      <c r="FE82" s="10"/>
+      <c r="FF82" s="10"/>
+      <c r="FG82" s="10"/>
+      <c r="FH82" s="10"/>
+      <c r="FI82" s="10"/>
+      <c r="FJ82" s="10"/>
+      <c r="FK82" s="10"/>
+      <c r="FL82" s="10"/>
+      <c r="FM82" s="10"/>
+      <c r="FN82" s="10"/>
+      <c r="FO82" s="10"/>
+      <c r="FP82" s="10"/>
+      <c r="FQ82" s="10"/>
+      <c r="FR82" s="10"/>
+      <c r="FS82" s="10"/>
+      <c r="FT82" s="10"/>
+      <c r="FU82" s="10"/>
+      <c r="FV82" s="10"/>
+      <c r="FW82" s="10"/>
+      <c r="FX82" s="10"/>
+      <c r="FY82" s="10"/>
+      <c r="FZ82" s="10"/>
+      <c r="GA82" s="10"/>
+      <c r="GB82" s="10"/>
+      <c r="GC82" s="10"/>
+      <c r="GD82" s="10"/>
+      <c r="GE82" s="10"/>
+      <c r="GF82" s="10"/>
+      <c r="GG82" s="10"/>
+      <c r="GH82" s="10"/>
+      <c r="GI82" s="10"/>
+      <c r="GJ82" s="10"/>
+      <c r="GK82" s="10"/>
+      <c r="GL82" s="10"/>
+      <c r="GM82" s="10"/>
+      <c r="GN82" s="10"/>
+      <c r="GO82" s="10"/>
+      <c r="GP82" s="10"/>
+      <c r="GQ82" s="10"/>
+      <c r="GR82" s="10"/>
+      <c r="GS82" s="10"/>
+      <c r="GT82" s="10"/>
+      <c r="GU82" s="10"/>
+      <c r="GV82" s="10"/>
+      <c r="GW82" s="10"/>
+      <c r="GX82" s="10"/>
+      <c r="GY82" s="10"/>
+      <c r="GZ82" s="10"/>
+      <c r="HA82" s="10"/>
+      <c r="HB82" s="10"/>
+      <c r="HC82" s="10"/>
+      <c r="HD82" s="10"/>
+      <c r="HE82" s="10"/>
+      <c r="HF82" s="10"/>
+      <c r="HG82" s="10"/>
+      <c r="HH82" s="10"/>
+      <c r="HI82" s="10"/>
+      <c r="HJ82" s="10"/>
+      <c r="HK82" s="10"/>
+      <c r="HL82" s="10"/>
+      <c r="HM82" s="10"/>
+      <c r="HN82" s="10"/>
+      <c r="HO82" s="10"/>
+      <c r="HP82" s="10"/>
+      <c r="HQ82" s="10"/>
+      <c r="HR82" s="10"/>
+      <c r="HS82" s="10"/>
+      <c r="HT82" s="10"/>
+      <c r="HU82" s="10"/>
+      <c r="HV82" s="10"/>
+      <c r="HW82" s="10"/>
+    </row>
+    <row r="83" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A83" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="19">
+        <v>1</v>
+      </c>
+      <c r="E83" s="8">
+        <v>44638</v>
+      </c>
+      <c r="F83" s="8">
+        <v>44652</v>
+      </c>
+      <c r="G83" s="9"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="10"/>
+      <c r="AA83" s="10"/>
+      <c r="AB83" s="10"/>
+      <c r="AC83" s="10"/>
+      <c r="AD83" s="10"/>
+      <c r="AE83" s="10"/>
+      <c r="AF83" s="10"/>
+      <c r="AG83" s="10"/>
+      <c r="AH83" s="10"/>
+      <c r="AI83" s="10"/>
+      <c r="AJ83" s="10"/>
+      <c r="AK83" s="10"/>
+      <c r="AL83" s="10"/>
+      <c r="AM83" s="10"/>
+      <c r="AN83" s="10"/>
+      <c r="AO83" s="10"/>
+      <c r="AP83" s="10"/>
+      <c r="AQ83" s="10"/>
+      <c r="AR83" s="10"/>
+      <c r="AS83" s="10"/>
+      <c r="AT83" s="10"/>
+      <c r="AU83" s="10"/>
+      <c r="AV83" s="10"/>
+      <c r="AW83" s="10"/>
+      <c r="AX83" s="10"/>
+      <c r="AY83" s="10"/>
+      <c r="AZ83" s="10"/>
+      <c r="BA83" s="10"/>
+      <c r="BB83" s="10"/>
+      <c r="BC83" s="10"/>
+      <c r="BD83" s="10"/>
+      <c r="BE83" s="10"/>
+      <c r="BF83" s="10"/>
+      <c r="BG83" s="10"/>
+      <c r="BH83" s="10"/>
+      <c r="BI83" s="10"/>
+      <c r="BJ83" s="10"/>
+      <c r="BK83" s="10"/>
+      <c r="BL83" s="10"/>
+      <c r="BM83" s="10"/>
+      <c r="BN83" s="10"/>
+      <c r="BO83" s="10"/>
+      <c r="BP83" s="10"/>
+      <c r="BQ83" s="10"/>
+      <c r="BR83" s="10"/>
+      <c r="BS83" s="10"/>
+      <c r="BT83" s="10"/>
+      <c r="BU83" s="10"/>
+      <c r="BV83" s="10"/>
+      <c r="BW83" s="10"/>
+      <c r="BX83" s="10"/>
+      <c r="BY83" s="10"/>
+      <c r="BZ83" s="10"/>
+      <c r="CA83" s="10"/>
+      <c r="CB83" s="10"/>
+      <c r="CC83" s="10"/>
+      <c r="CD83" s="10"/>
+      <c r="CE83" s="10"/>
+      <c r="CF83" s="10"/>
+      <c r="CG83" s="10"/>
+      <c r="CH83" s="10"/>
+      <c r="CI83" s="10"/>
+      <c r="CJ83" s="10"/>
+      <c r="CK83" s="10"/>
+      <c r="CL83" s="10"/>
+      <c r="CM83" s="10"/>
+      <c r="CN83" s="10"/>
+      <c r="CO83" s="10"/>
+      <c r="CP83" s="10"/>
+      <c r="CQ83" s="10"/>
+      <c r="CR83" s="10"/>
+      <c r="CS83" s="10"/>
+      <c r="CT83" s="10"/>
+      <c r="CU83" s="10"/>
+      <c r="CV83" s="10"/>
+      <c r="CW83" s="10"/>
+      <c r="CX83" s="10"/>
+      <c r="CY83" s="10"/>
+      <c r="CZ83" s="10"/>
+      <c r="DA83" s="10"/>
+      <c r="DB83" s="10"/>
+      <c r="DC83" s="10"/>
+      <c r="DD83" s="10"/>
+      <c r="DE83" s="10"/>
+      <c r="DF83" s="10"/>
+      <c r="DG83" s="10"/>
+      <c r="DH83" s="10"/>
+      <c r="DI83" s="10"/>
+      <c r="DJ83" s="10"/>
+      <c r="DK83" s="10"/>
+      <c r="DL83" s="10"/>
+      <c r="DM83" s="10"/>
+      <c r="DN83" s="10"/>
+      <c r="DO83" s="10"/>
+      <c r="DP83" s="10"/>
+      <c r="DQ83" s="10"/>
+      <c r="DR83" s="10"/>
+      <c r="DS83" s="10"/>
+      <c r="DT83" s="10"/>
+      <c r="DU83" s="10"/>
+      <c r="DV83" s="10"/>
+      <c r="DW83" s="10"/>
+      <c r="DX83" s="10"/>
+      <c r="DY83" s="10"/>
+      <c r="DZ83" s="10"/>
+      <c r="EA83" s="10"/>
+      <c r="EB83" s="10"/>
+      <c r="EC83" s="10"/>
+      <c r="ED83" s="10"/>
+      <c r="EE83" s="10"/>
+      <c r="EF83" s="10"/>
+      <c r="EG83" s="10"/>
+      <c r="EH83" s="10"/>
+      <c r="EI83" s="10"/>
+      <c r="EJ83" s="10"/>
+      <c r="EK83" s="10"/>
+      <c r="EL83" s="10"/>
+      <c r="EM83" s="10"/>
+      <c r="EN83" s="10"/>
+      <c r="EO83" s="10"/>
+      <c r="EP83" s="10"/>
+      <c r="EQ83" s="10"/>
+      <c r="ER83" s="10"/>
+      <c r="ES83" s="10"/>
+      <c r="ET83" s="10"/>
+      <c r="EU83" s="10"/>
+      <c r="EV83" s="10"/>
+      <c r="EW83" s="10"/>
+      <c r="EX83" s="10"/>
+      <c r="EY83" s="10"/>
+      <c r="EZ83" s="10"/>
+      <c r="FA83" s="10"/>
+      <c r="FB83" s="10"/>
+      <c r="FC83" s="10"/>
+      <c r="FD83" s="10"/>
+      <c r="FE83" s="10"/>
+      <c r="FF83" s="10"/>
+      <c r="FG83" s="10"/>
+      <c r="FH83" s="10"/>
+      <c r="FI83" s="10"/>
+      <c r="FJ83" s="10"/>
+      <c r="FK83" s="10"/>
+      <c r="FL83" s="10"/>
+      <c r="FM83" s="10"/>
+      <c r="FN83" s="10"/>
+      <c r="FO83" s="10"/>
+      <c r="FP83" s="10"/>
+      <c r="FQ83" s="10"/>
+      <c r="FR83" s="10"/>
+      <c r="FS83" s="10"/>
+      <c r="FT83" s="10"/>
+      <c r="FU83" s="10"/>
+      <c r="FV83" s="10"/>
+      <c r="FW83" s="10"/>
+      <c r="FX83" s="10"/>
+      <c r="FY83" s="10"/>
+      <c r="FZ83" s="10"/>
+      <c r="GA83" s="10"/>
+      <c r="GB83" s="10"/>
+      <c r="GC83" s="10"/>
+      <c r="GD83" s="10"/>
+      <c r="GE83" s="10"/>
+      <c r="GF83" s="10"/>
+      <c r="GG83" s="10"/>
+      <c r="GH83" s="10"/>
+      <c r="GI83" s="10"/>
+      <c r="GJ83" s="10"/>
+      <c r="GK83" s="10"/>
+      <c r="GL83" s="10"/>
+      <c r="GM83" s="10"/>
+      <c r="GN83" s="10"/>
+      <c r="GO83" s="10"/>
+      <c r="GP83" s="10"/>
+      <c r="GQ83" s="10"/>
+      <c r="GR83" s="10"/>
+      <c r="GS83" s="10"/>
+      <c r="GT83" s="10"/>
+      <c r="GU83" s="10"/>
+      <c r="GV83" s="10"/>
+      <c r="GW83" s="10"/>
+      <c r="GX83" s="10"/>
+      <c r="GY83" s="10"/>
+      <c r="GZ83" s="10"/>
+      <c r="HA83" s="10"/>
+      <c r="HB83" s="10"/>
+      <c r="HC83" s="10"/>
+      <c r="HD83" s="10"/>
+      <c r="HE83" s="10"/>
+      <c r="HF83" s="10"/>
+      <c r="HG83" s="10"/>
+      <c r="HH83" s="10"/>
+      <c r="HI83" s="10"/>
+      <c r="HJ83" s="10"/>
+      <c r="HK83" s="10"/>
+      <c r="HL83" s="10"/>
+      <c r="HM83" s="10"/>
+      <c r="HN83" s="10"/>
+      <c r="HO83" s="10"/>
+      <c r="HP83" s="10"/>
+      <c r="HQ83" s="10"/>
+      <c r="HR83" s="10"/>
+      <c r="HS83" s="10"/>
+      <c r="HT83" s="10"/>
+      <c r="HU83" s="10"/>
+      <c r="HV83" s="10"/>
+      <c r="HW83" s="10"/>
+    </row>
+    <row r="84" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A84" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="19">
+        <v>1</v>
+      </c>
+      <c r="E84" s="8">
+        <v>44638</v>
+      </c>
+      <c r="F84" s="8">
+        <v>44652</v>
+      </c>
+      <c r="G84" s="9"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="10"/>
+      <c r="AB84" s="10"/>
+      <c r="AC84" s="10"/>
+      <c r="AD84" s="10"/>
+      <c r="AE84" s="10"/>
+      <c r="AF84" s="10"/>
+      <c r="AG84" s="10"/>
+      <c r="AH84" s="10"/>
+      <c r="AI84" s="10"/>
+      <c r="AJ84" s="10"/>
+      <c r="AK84" s="10"/>
+      <c r="AL84" s="10"/>
+      <c r="AM84" s="10"/>
+      <c r="AN84" s="10"/>
+      <c r="AO84" s="10"/>
+      <c r="AP84" s="10"/>
+      <c r="AQ84" s="10"/>
+      <c r="AR84" s="10"/>
+      <c r="AS84" s="10"/>
+      <c r="AT84" s="10"/>
+      <c r="AU84" s="10"/>
+      <c r="AV84" s="10"/>
+      <c r="AW84" s="10"/>
+      <c r="AX84" s="10"/>
+      <c r="AY84" s="10"/>
+      <c r="AZ84" s="10"/>
+      <c r="BA84" s="10"/>
+      <c r="BB84" s="10"/>
+      <c r="BC84" s="10"/>
+      <c r="BD84" s="10"/>
+      <c r="BE84" s="10"/>
+      <c r="BF84" s="10"/>
+      <c r="BG84" s="10"/>
+      <c r="BH84" s="10"/>
+      <c r="BI84" s="10"/>
+      <c r="BJ84" s="10"/>
+      <c r="BK84" s="10"/>
+      <c r="BL84" s="10"/>
+      <c r="BM84" s="10"/>
+      <c r="BN84" s="10"/>
+      <c r="BO84" s="10"/>
+      <c r="BP84" s="10"/>
+      <c r="BQ84" s="10"/>
+      <c r="BR84" s="10"/>
+      <c r="BS84" s="10"/>
+      <c r="BT84" s="10"/>
+      <c r="BU84" s="10"/>
+      <c r="BV84" s="10"/>
+      <c r="BW84" s="10"/>
+      <c r="BX84" s="10"/>
+      <c r="BY84" s="10"/>
+      <c r="BZ84" s="10"/>
+      <c r="CA84" s="10"/>
+      <c r="CB84" s="10"/>
+      <c r="CC84" s="10"/>
+      <c r="CD84" s="10"/>
+      <c r="CE84" s="10"/>
+      <c r="CF84" s="10"/>
+      <c r="CG84" s="10"/>
+      <c r="CH84" s="10"/>
+      <c r="CI84" s="10"/>
+      <c r="CJ84" s="10"/>
+      <c r="CK84" s="10"/>
+      <c r="CL84" s="10"/>
+      <c r="CM84" s="10"/>
+      <c r="CN84" s="10"/>
+      <c r="CO84" s="10"/>
+      <c r="CP84" s="10"/>
+      <c r="CQ84" s="10"/>
+      <c r="CR84" s="10"/>
+      <c r="CS84" s="10"/>
+      <c r="CT84" s="10"/>
+      <c r="CU84" s="10"/>
+      <c r="CV84" s="10"/>
+      <c r="CW84" s="10"/>
+      <c r="CX84" s="10"/>
+      <c r="CY84" s="10"/>
+      <c r="CZ84" s="10"/>
+      <c r="DA84" s="10"/>
+      <c r="DB84" s="10"/>
+      <c r="DC84" s="10"/>
+      <c r="DD84" s="10"/>
+      <c r="DE84" s="10"/>
+      <c r="DF84" s="10"/>
+      <c r="DG84" s="10"/>
+      <c r="DH84" s="10"/>
+      <c r="DI84" s="10"/>
+      <c r="DJ84" s="10"/>
+      <c r="DK84" s="10"/>
+      <c r="DL84" s="10"/>
+      <c r="DM84" s="10"/>
+      <c r="DN84" s="10"/>
+      <c r="DO84" s="10"/>
+      <c r="DP84" s="10"/>
+      <c r="DQ84" s="10"/>
+      <c r="DR84" s="10"/>
+      <c r="DS84" s="10"/>
+      <c r="DT84" s="10"/>
+      <c r="DU84" s="10"/>
+      <c r="DV84" s="10"/>
+      <c r="DW84" s="10"/>
+      <c r="DX84" s="10"/>
+      <c r="DY84" s="10"/>
+      <c r="DZ84" s="10"/>
+      <c r="EA84" s="10"/>
+      <c r="EB84" s="10"/>
+      <c r="EC84" s="10"/>
+      <c r="ED84" s="10"/>
+      <c r="EE84" s="10"/>
+      <c r="EF84" s="10"/>
+      <c r="EG84" s="10"/>
+      <c r="EH84" s="10"/>
+      <c r="EI84" s="10"/>
+      <c r="EJ84" s="10"/>
+      <c r="EK84" s="10"/>
+      <c r="EL84" s="10"/>
+      <c r="EM84" s="10"/>
+      <c r="EN84" s="10"/>
+      <c r="EO84" s="10"/>
+      <c r="EP84" s="10"/>
+      <c r="EQ84" s="10"/>
+      <c r="ER84" s="10"/>
+      <c r="ES84" s="10"/>
+      <c r="ET84" s="10"/>
+      <c r="EU84" s="10"/>
+      <c r="EV84" s="10"/>
+      <c r="EW84" s="10"/>
+      <c r="EX84" s="10"/>
+      <c r="EY84" s="10"/>
+      <c r="EZ84" s="10"/>
+      <c r="FA84" s="10"/>
+      <c r="FB84" s="10"/>
+      <c r="FC84" s="10"/>
+      <c r="FD84" s="10"/>
+      <c r="FE84" s="10"/>
+      <c r="FF84" s="10"/>
+      <c r="FG84" s="10"/>
+      <c r="FH84" s="10"/>
+      <c r="FI84" s="10"/>
+      <c r="FJ84" s="10"/>
+      <c r="FK84" s="10"/>
+      <c r="FL84" s="10"/>
+      <c r="FM84" s="10"/>
+      <c r="FN84" s="10"/>
+      <c r="FO84" s="10"/>
+      <c r="FP84" s="10"/>
+      <c r="FQ84" s="10"/>
+      <c r="FR84" s="10"/>
+      <c r="FS84" s="10"/>
+      <c r="FT84" s="10"/>
+      <c r="FU84" s="10"/>
+      <c r="FV84" s="10"/>
+      <c r="FW84" s="10"/>
+      <c r="FX84" s="10"/>
+      <c r="FY84" s="10"/>
+      <c r="FZ84" s="10"/>
+      <c r="GA84" s="10"/>
+      <c r="GB84" s="10"/>
+      <c r="GC84" s="10"/>
+      <c r="GD84" s="10"/>
+      <c r="GE84" s="10"/>
+      <c r="GF84" s="10"/>
+      <c r="GG84" s="10"/>
+      <c r="GH84" s="10"/>
+      <c r="GI84" s="10"/>
+      <c r="GJ84" s="10"/>
+      <c r="GK84" s="10"/>
+      <c r="GL84" s="10"/>
+      <c r="GM84" s="10"/>
+      <c r="GN84" s="10"/>
+      <c r="GO84" s="10"/>
+      <c r="GP84" s="10"/>
+      <c r="GQ84" s="10"/>
+      <c r="GR84" s="10"/>
+      <c r="GS84" s="10"/>
+      <c r="GT84" s="10"/>
+      <c r="GU84" s="10"/>
+      <c r="GV84" s="10"/>
+      <c r="GW84" s="10"/>
+      <c r="GX84" s="10"/>
+      <c r="GY84" s="10"/>
+      <c r="GZ84" s="10"/>
+      <c r="HA84" s="10"/>
+      <c r="HB84" s="10"/>
+      <c r="HC84" s="10"/>
+      <c r="HD84" s="10"/>
+      <c r="HE84" s="10"/>
+      <c r="HF84" s="10"/>
+      <c r="HG84" s="10"/>
+      <c r="HH84" s="10"/>
+      <c r="HI84" s="10"/>
+      <c r="HJ84" s="10"/>
+      <c r="HK84" s="10"/>
+      <c r="HL84" s="10"/>
+      <c r="HM84" s="10"/>
+      <c r="HN84" s="10"/>
+      <c r="HO84" s="10"/>
+      <c r="HP84" s="10"/>
+      <c r="HQ84" s="10"/>
+      <c r="HR84" s="10"/>
+      <c r="HS84" s="10"/>
+      <c r="HT84" s="10"/>
+      <c r="HU84" s="10"/>
+      <c r="HV84" s="10"/>
+      <c r="HW84" s="10"/>
+    </row>
+    <row r="85" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A85" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="19">
+        <v>1</v>
+      </c>
+      <c r="E85" s="8">
+        <v>44642</v>
+      </c>
+      <c r="F85" s="8">
+        <v>44659</v>
+      </c>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="10"/>
+      <c r="AB85" s="10"/>
+      <c r="AC85" s="10"/>
+      <c r="AD85" s="10"/>
+      <c r="AE85" s="10"/>
+      <c r="AF85" s="10"/>
+      <c r="AG85" s="10"/>
+      <c r="AH85" s="10"/>
+      <c r="AI85" s="10"/>
+      <c r="AJ85" s="10"/>
+      <c r="AK85" s="10"/>
+      <c r="AL85" s="10"/>
+      <c r="AM85" s="10"/>
+      <c r="AN85" s="10"/>
+      <c r="AO85" s="10"/>
+      <c r="AP85" s="10"/>
+      <c r="AQ85" s="10"/>
+      <c r="AR85" s="10"/>
+      <c r="AS85" s="10"/>
+      <c r="AT85" s="10"/>
+      <c r="AU85" s="10"/>
+      <c r="AV85" s="10"/>
+      <c r="AW85" s="10"/>
+      <c r="AX85" s="10"/>
+      <c r="AY85" s="10"/>
+      <c r="AZ85" s="10"/>
+      <c r="BA85" s="10"/>
+      <c r="BB85" s="10"/>
+      <c r="BC85" s="10"/>
+      <c r="BD85" s="10"/>
+      <c r="BE85" s="10"/>
+      <c r="BF85" s="10"/>
+      <c r="BG85" s="10"/>
+      <c r="BH85" s="10"/>
+      <c r="BI85" s="10"/>
+      <c r="BJ85" s="10"/>
+      <c r="BK85" s="10"/>
+      <c r="BL85" s="10"/>
+      <c r="BM85" s="10"/>
+      <c r="BN85" s="10"/>
+      <c r="BO85" s="10"/>
+      <c r="BP85" s="10"/>
+      <c r="BQ85" s="10"/>
+      <c r="BR85" s="10"/>
+      <c r="BS85" s="10"/>
+      <c r="BT85" s="10"/>
+      <c r="BU85" s="10"/>
+      <c r="BV85" s="10"/>
+      <c r="BW85" s="10"/>
+      <c r="BX85" s="10"/>
+      <c r="BY85" s="10"/>
+      <c r="BZ85" s="10"/>
+      <c r="CA85" s="10"/>
+      <c r="CB85" s="10"/>
+      <c r="CC85" s="10"/>
+      <c r="CD85" s="10"/>
+      <c r="CE85" s="10"/>
+      <c r="CF85" s="10"/>
+      <c r="CG85" s="10"/>
+      <c r="CH85" s="10"/>
+      <c r="CI85" s="10"/>
+      <c r="CJ85" s="10"/>
+      <c r="CK85" s="10"/>
+      <c r="CL85" s="10"/>
+      <c r="CM85" s="10"/>
+      <c r="CN85" s="10"/>
+      <c r="CO85" s="10"/>
+      <c r="CP85" s="10"/>
+      <c r="CQ85" s="10"/>
+      <c r="CR85" s="10"/>
+      <c r="CS85" s="10"/>
+      <c r="CT85" s="10"/>
+      <c r="CU85" s="10"/>
+      <c r="CV85" s="10"/>
+      <c r="CW85" s="10"/>
+      <c r="CX85" s="10"/>
+      <c r="CY85" s="10"/>
+      <c r="CZ85" s="10"/>
+      <c r="DA85" s="10"/>
+      <c r="DB85" s="10"/>
+      <c r="DC85" s="10"/>
+      <c r="DD85" s="10"/>
+      <c r="DE85" s="10"/>
+      <c r="DF85" s="10"/>
+      <c r="DG85" s="10"/>
+      <c r="DH85" s="10"/>
+      <c r="DI85" s="10"/>
+      <c r="DJ85" s="10"/>
+      <c r="DK85" s="10"/>
+      <c r="DL85" s="10"/>
+      <c r="DM85" s="10"/>
+      <c r="DN85" s="10"/>
+      <c r="DO85" s="10"/>
+      <c r="DP85" s="10"/>
+      <c r="DQ85" s="10"/>
+      <c r="DR85" s="10"/>
+      <c r="DS85" s="10"/>
+      <c r="DT85" s="10"/>
+      <c r="DU85" s="10"/>
+      <c r="DV85" s="10"/>
+      <c r="DW85" s="10"/>
+      <c r="DX85" s="10"/>
+      <c r="DY85" s="10"/>
+      <c r="DZ85" s="10"/>
+      <c r="EA85" s="10"/>
+      <c r="EB85" s="10"/>
+      <c r="EC85" s="10"/>
+      <c r="ED85" s="10"/>
+      <c r="EE85" s="10"/>
+      <c r="EF85" s="10"/>
+      <c r="EG85" s="10"/>
+      <c r="EH85" s="10"/>
+      <c r="EI85" s="10"/>
+      <c r="EJ85" s="10"/>
+      <c r="EK85" s="10"/>
+      <c r="EL85" s="10"/>
+      <c r="EM85" s="10"/>
+      <c r="EN85" s="10"/>
+      <c r="EO85" s="10"/>
+      <c r="EP85" s="10"/>
+      <c r="EQ85" s="10"/>
+      <c r="ER85" s="10"/>
+      <c r="ES85" s="10"/>
+      <c r="ET85" s="10"/>
+      <c r="EU85" s="10"/>
+      <c r="EV85" s="10"/>
+      <c r="EW85" s="10"/>
+      <c r="EX85" s="10"/>
+      <c r="EY85" s="10"/>
+      <c r="EZ85" s="10"/>
+      <c r="FA85" s="10"/>
+      <c r="FB85" s="10"/>
+      <c r="FC85" s="10"/>
+      <c r="FD85" s="10"/>
+      <c r="FE85" s="10"/>
+      <c r="FF85" s="10"/>
+      <c r="FG85" s="10"/>
+      <c r="FH85" s="10"/>
+      <c r="FI85" s="10"/>
+      <c r="FJ85" s="10"/>
+      <c r="FK85" s="10"/>
+      <c r="FL85" s="10"/>
+      <c r="FM85" s="10"/>
+      <c r="FN85" s="10"/>
+      <c r="FO85" s="10"/>
+      <c r="FP85" s="10"/>
+      <c r="FQ85" s="10"/>
+      <c r="FR85" s="10"/>
+      <c r="FS85" s="10"/>
+      <c r="FT85" s="10"/>
+      <c r="FU85" s="10"/>
+      <c r="FV85" s="10"/>
+      <c r="FW85" s="10"/>
+      <c r="FX85" s="10"/>
+      <c r="FY85" s="10"/>
+      <c r="FZ85" s="10"/>
+      <c r="GA85" s="10"/>
+      <c r="GB85" s="10"/>
+      <c r="GC85" s="10"/>
+      <c r="GD85" s="10"/>
+      <c r="GE85" s="10"/>
+      <c r="GF85" s="10"/>
+      <c r="GG85" s="10"/>
+      <c r="GH85" s="10"/>
+      <c r="GI85" s="10"/>
+      <c r="GJ85" s="10"/>
+      <c r="GK85" s="10"/>
+      <c r="GL85" s="10"/>
+      <c r="GM85" s="10"/>
+      <c r="GN85" s="10"/>
+      <c r="GO85" s="10"/>
+      <c r="GP85" s="10"/>
+      <c r="GQ85" s="10"/>
+      <c r="GR85" s="10"/>
+      <c r="GS85" s="10"/>
+      <c r="GT85" s="10"/>
+      <c r="GU85" s="10"/>
+      <c r="GV85" s="10"/>
+      <c r="GW85" s="10"/>
+      <c r="GX85" s="10"/>
+      <c r="GY85" s="10"/>
+      <c r="GZ85" s="10"/>
+      <c r="HA85" s="10"/>
+      <c r="HB85" s="10"/>
+      <c r="HC85" s="10"/>
+      <c r="HD85" s="10"/>
+      <c r="HE85" s="10"/>
+      <c r="HF85" s="10"/>
+      <c r="HG85" s="10"/>
+      <c r="HH85" s="10"/>
+      <c r="HI85" s="10"/>
+      <c r="HJ85" s="10"/>
+      <c r="HK85" s="10"/>
+      <c r="HL85" s="10"/>
+      <c r="HM85" s="10"/>
+      <c r="HN85" s="10"/>
+      <c r="HO85" s="10"/>
+      <c r="HP85" s="10"/>
+      <c r="HQ85" s="10"/>
+      <c r="HR85" s="10"/>
+      <c r="HS85" s="10"/>
+      <c r="HT85" s="10"/>
+      <c r="HU85" s="10"/>
+      <c r="HV85" s="10"/>
+      <c r="HW85" s="10"/>
+    </row>
+    <row r="86" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A86" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="19">
+        <v>1</v>
+      </c>
+      <c r="E86" s="8">
+        <v>44643</v>
+      </c>
+      <c r="F86" s="8">
+        <v>44659</v>
+      </c>
+      <c r="G86" s="9"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="10"/>
+      <c r="AB86" s="10"/>
+      <c r="AC86" s="10"/>
+      <c r="AD86" s="10"/>
+      <c r="AE86" s="10"/>
+      <c r="AF86" s="10"/>
+      <c r="AG86" s="10"/>
+      <c r="AH86" s="10"/>
+      <c r="AI86" s="10"/>
+      <c r="AJ86" s="10"/>
+      <c r="AK86" s="10"/>
+      <c r="AL86" s="10"/>
+      <c r="AM86" s="10"/>
+      <c r="AN86" s="10"/>
+      <c r="AO86" s="10"/>
+      <c r="AP86" s="10"/>
+      <c r="AQ86" s="10"/>
+      <c r="AR86" s="10"/>
+      <c r="AS86" s="10"/>
+      <c r="AT86" s="10"/>
+      <c r="AU86" s="10"/>
+      <c r="AV86" s="10"/>
+      <c r="AW86" s="10"/>
+      <c r="AX86" s="10"/>
+      <c r="AY86" s="10"/>
+      <c r="AZ86" s="10"/>
+      <c r="BA86" s="10"/>
+      <c r="BB86" s="10"/>
+      <c r="BC86" s="10"/>
+      <c r="BD86" s="10"/>
+      <c r="BE86" s="10"/>
+      <c r="BF86" s="10"/>
+      <c r="BG86" s="10"/>
+      <c r="BH86" s="10"/>
+      <c r="BI86" s="10"/>
+      <c r="BJ86" s="10"/>
+      <c r="BK86" s="10"/>
+      <c r="BL86" s="10"/>
+      <c r="BM86" s="10"/>
+      <c r="BN86" s="10"/>
+      <c r="BO86" s="10"/>
+      <c r="BP86" s="10"/>
+      <c r="BQ86" s="10"/>
+      <c r="BR86" s="10"/>
+      <c r="BS86" s="10"/>
+      <c r="BT86" s="10"/>
+      <c r="BU86" s="10"/>
+      <c r="BV86" s="10"/>
+      <c r="BW86" s="10"/>
+      <c r="BX86" s="10"/>
+      <c r="BY86" s="10"/>
+      <c r="BZ86" s="10"/>
+      <c r="CA86" s="10"/>
+      <c r="CB86" s="10"/>
+      <c r="CC86" s="10"/>
+      <c r="CD86" s="10"/>
+      <c r="CE86" s="10"/>
+      <c r="CF86" s="10"/>
+      <c r="CG86" s="10"/>
+      <c r="CH86" s="10"/>
+      <c r="CI86" s="10"/>
+      <c r="CJ86" s="10"/>
+      <c r="CK86" s="10"/>
+      <c r="CL86" s="10"/>
+      <c r="CM86" s="10"/>
+      <c r="CN86" s="10"/>
+      <c r="CO86" s="10"/>
+      <c r="CP86" s="10"/>
+      <c r="CQ86" s="10"/>
+      <c r="CR86" s="10"/>
+      <c r="CS86" s="10"/>
+      <c r="CT86" s="10"/>
+      <c r="CU86" s="10"/>
+      <c r="CV86" s="10"/>
+      <c r="CW86" s="10"/>
+      <c r="CX86" s="10"/>
+      <c r="CY86" s="10"/>
+      <c r="CZ86" s="10"/>
+      <c r="DA86" s="10"/>
+      <c r="DB86" s="10"/>
+      <c r="DC86" s="10"/>
+      <c r="DD86" s="10"/>
+      <c r="DE86" s="10"/>
+      <c r="DF86" s="10"/>
+      <c r="DG86" s="10"/>
+      <c r="DH86" s="10"/>
+      <c r="DI86" s="10"/>
+      <c r="DJ86" s="10"/>
+      <c r="DK86" s="10"/>
+      <c r="DL86" s="10"/>
+      <c r="DM86" s="10"/>
+      <c r="DN86" s="10"/>
+      <c r="DO86" s="10"/>
+      <c r="DP86" s="10"/>
+      <c r="DQ86" s="10"/>
+      <c r="DR86" s="10"/>
+      <c r="DS86" s="10"/>
+      <c r="DT86" s="10"/>
+      <c r="DU86" s="10"/>
+      <c r="DV86" s="10"/>
+      <c r="DW86" s="10"/>
+      <c r="DX86" s="10"/>
+      <c r="DY86" s="10"/>
+      <c r="DZ86" s="10"/>
+      <c r="EA86" s="10"/>
+      <c r="EB86" s="10"/>
+      <c r="EC86" s="10"/>
+      <c r="ED86" s="10"/>
+      <c r="EE86" s="10"/>
+      <c r="EF86" s="10"/>
+      <c r="EG86" s="10"/>
+      <c r="EH86" s="10"/>
+      <c r="EI86" s="10"/>
+      <c r="EJ86" s="10"/>
+      <c r="EK86" s="10"/>
+      <c r="EL86" s="10"/>
+      <c r="EM86" s="10"/>
+      <c r="EN86" s="10"/>
+      <c r="EO86" s="10"/>
+      <c r="EP86" s="10"/>
+      <c r="EQ86" s="10"/>
+      <c r="ER86" s="10"/>
+      <c r="ES86" s="10"/>
+      <c r="ET86" s="10"/>
+      <c r="EU86" s="10"/>
+      <c r="EV86" s="10"/>
+      <c r="EW86" s="10"/>
+      <c r="EX86" s="10"/>
+      <c r="EY86" s="10"/>
+      <c r="EZ86" s="10"/>
+      <c r="FA86" s="10"/>
+      <c r="FB86" s="10"/>
+      <c r="FC86" s="10"/>
+      <c r="FD86" s="10"/>
+      <c r="FE86" s="10"/>
+      <c r="FF86" s="10"/>
+      <c r="FG86" s="10"/>
+      <c r="FH86" s="10"/>
+      <c r="FI86" s="10"/>
+      <c r="FJ86" s="10"/>
+      <c r="FK86" s="10"/>
+      <c r="FL86" s="10"/>
+      <c r="FM86" s="10"/>
+      <c r="FN86" s="10"/>
+      <c r="FO86" s="10"/>
+      <c r="FP86" s="10"/>
+      <c r="FQ86" s="10"/>
+      <c r="FR86" s="10"/>
+      <c r="FS86" s="10"/>
+      <c r="FT86" s="10"/>
+      <c r="FU86" s="10"/>
+      <c r="FV86" s="10"/>
+      <c r="FW86" s="10"/>
+      <c r="FX86" s="10"/>
+      <c r="FY86" s="10"/>
+      <c r="FZ86" s="10"/>
+      <c r="GA86" s="10"/>
+      <c r="GB86" s="10"/>
+      <c r="GC86" s="10"/>
+      <c r="GD86" s="10"/>
+      <c r="GE86" s="10"/>
+      <c r="GF86" s="10"/>
+      <c r="GG86" s="10"/>
+      <c r="GH86" s="10"/>
+      <c r="GI86" s="10"/>
+      <c r="GJ86" s="10"/>
+      <c r="GK86" s="10"/>
+      <c r="GL86" s="10"/>
+      <c r="GM86" s="10"/>
+      <c r="GN86" s="10"/>
+      <c r="GO86" s="10"/>
+      <c r="GP86" s="10"/>
+      <c r="GQ86" s="10"/>
+      <c r="GR86" s="10"/>
+      <c r="GS86" s="10"/>
+      <c r="GT86" s="10"/>
+      <c r="GU86" s="10"/>
+      <c r="GV86" s="10"/>
+      <c r="GW86" s="10"/>
+      <c r="GX86" s="10"/>
+      <c r="GY86" s="10"/>
+      <c r="GZ86" s="10"/>
+      <c r="HA86" s="10"/>
+      <c r="HB86" s="10"/>
+      <c r="HC86" s="10"/>
+      <c r="HD86" s="10"/>
+      <c r="HE86" s="10"/>
+      <c r="HF86" s="10"/>
+      <c r="HG86" s="10"/>
+      <c r="HH86" s="10"/>
+      <c r="HI86" s="10"/>
+      <c r="HJ86" s="10"/>
+      <c r="HK86" s="10"/>
+      <c r="HL86" s="10"/>
+      <c r="HM86" s="10"/>
+      <c r="HN86" s="10"/>
+      <c r="HO86" s="10"/>
+      <c r="HP86" s="10"/>
+      <c r="HQ86" s="10"/>
+      <c r="HR86" s="10"/>
+      <c r="HS86" s="10"/>
+      <c r="HT86" s="10"/>
+      <c r="HU86" s="10"/>
+      <c r="HV86" s="10"/>
+      <c r="HW86" s="10"/>
+    </row>
+    <row r="87" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A87" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="19">
+        <v>1</v>
+      </c>
+      <c r="E87" s="8">
+        <v>44652</v>
+      </c>
+      <c r="F87" s="8">
+        <v>44663</v>
+      </c>
+      <c r="G87" s="9"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+      <c r="AB87" s="10"/>
+      <c r="AC87" s="10"/>
+      <c r="AD87" s="10"/>
+      <c r="AE87" s="10"/>
+      <c r="AF87" s="10"/>
+      <c r="AG87" s="10"/>
+      <c r="AH87" s="10"/>
+      <c r="AI87" s="10"/>
+      <c r="AJ87" s="10"/>
+      <c r="AK87" s="10"/>
+      <c r="AL87" s="10"/>
+      <c r="AM87" s="10"/>
+      <c r="AN87" s="10"/>
+      <c r="AO87" s="10"/>
+      <c r="AP87" s="10"/>
+      <c r="AQ87" s="10"/>
+      <c r="AR87" s="10"/>
+      <c r="AS87" s="10"/>
+      <c r="AT87" s="10"/>
+      <c r="AU87" s="10"/>
+      <c r="AV87" s="10"/>
+      <c r="AW87" s="10"/>
+      <c r="AX87" s="10"/>
+      <c r="AY87" s="10"/>
+      <c r="AZ87" s="10"/>
+      <c r="BA87" s="10"/>
+      <c r="BB87" s="10"/>
+      <c r="BC87" s="10"/>
+      <c r="BD87" s="10"/>
+      <c r="BE87" s="10"/>
+      <c r="BF87" s="10"/>
+      <c r="BG87" s="10"/>
+      <c r="BH87" s="10"/>
+      <c r="BI87" s="10"/>
+      <c r="BJ87" s="10"/>
+      <c r="BK87" s="10"/>
+      <c r="BL87" s="10"/>
+      <c r="BM87" s="10"/>
+      <c r="BN87" s="10"/>
+      <c r="BO87" s="10"/>
+      <c r="BP87" s="10"/>
+      <c r="BQ87" s="10"/>
+      <c r="BR87" s="10"/>
+      <c r="BS87" s="10"/>
+      <c r="BT87" s="10"/>
+      <c r="BU87" s="10"/>
+      <c r="BV87" s="10"/>
+      <c r="BW87" s="10"/>
+      <c r="BX87" s="10"/>
+      <c r="BY87" s="10"/>
+      <c r="BZ87" s="10"/>
+      <c r="CA87" s="10"/>
+      <c r="CB87" s="10"/>
+      <c r="CC87" s="10"/>
+      <c r="CD87" s="10"/>
+      <c r="CE87" s="10"/>
+      <c r="CF87" s="10"/>
+      <c r="CG87" s="10"/>
+      <c r="CH87" s="10"/>
+      <c r="CI87" s="10"/>
+      <c r="CJ87" s="10"/>
+      <c r="CK87" s="10"/>
+      <c r="CL87" s="10"/>
+      <c r="CM87" s="10"/>
+      <c r="CN87" s="10"/>
+      <c r="CO87" s="10"/>
+      <c r="CP87" s="10"/>
+      <c r="CQ87" s="10"/>
+      <c r="CR87" s="10"/>
+      <c r="CS87" s="10"/>
+      <c r="CT87" s="10"/>
+      <c r="CU87" s="10"/>
+      <c r="CV87" s="10"/>
+      <c r="CW87" s="10"/>
+      <c r="CX87" s="10"/>
+      <c r="CY87" s="10"/>
+      <c r="CZ87" s="10"/>
+      <c r="DA87" s="10"/>
+      <c r="DB87" s="10"/>
+      <c r="DC87" s="10"/>
+      <c r="DD87" s="10"/>
+      <c r="DE87" s="10"/>
+      <c r="DF87" s="10"/>
+      <c r="DG87" s="10"/>
+      <c r="DH87" s="10"/>
+      <c r="DI87" s="10"/>
+      <c r="DJ87" s="10"/>
+      <c r="DK87" s="10"/>
+      <c r="DL87" s="10"/>
+      <c r="DM87" s="10"/>
+      <c r="DN87" s="10"/>
+      <c r="DO87" s="10"/>
+      <c r="DP87" s="10"/>
+      <c r="DQ87" s="10"/>
+      <c r="DR87" s="10"/>
+      <c r="DS87" s="10"/>
+      <c r="DT87" s="10"/>
+      <c r="DU87" s="10"/>
+      <c r="DV87" s="10"/>
+      <c r="DW87" s="10"/>
+      <c r="DX87" s="10"/>
+      <c r="DY87" s="10"/>
+      <c r="DZ87" s="10"/>
+      <c r="EA87" s="10"/>
+      <c r="EB87" s="10"/>
+      <c r="EC87" s="10"/>
+      <c r="ED87" s="10"/>
+      <c r="EE87" s="10"/>
+      <c r="EF87" s="10"/>
+      <c r="EG87" s="10"/>
+      <c r="EH87" s="10"/>
+      <c r="EI87" s="10"/>
+      <c r="EJ87" s="10"/>
+      <c r="EK87" s="10"/>
+      <c r="EL87" s="10"/>
+      <c r="EM87" s="10"/>
+      <c r="EN87" s="10"/>
+      <c r="EO87" s="10"/>
+      <c r="EP87" s="10"/>
+      <c r="EQ87" s="10"/>
+      <c r="ER87" s="10"/>
+      <c r="ES87" s="10"/>
+      <c r="ET87" s="10"/>
+      <c r="EU87" s="10"/>
+      <c r="EV87" s="10"/>
+      <c r="EW87" s="10"/>
+      <c r="EX87" s="10"/>
+      <c r="EY87" s="10"/>
+      <c r="EZ87" s="10"/>
+      <c r="FA87" s="10"/>
+      <c r="FB87" s="10"/>
+      <c r="FC87" s="10"/>
+      <c r="FD87" s="10"/>
+      <c r="FE87" s="10"/>
+      <c r="FF87" s="10"/>
+      <c r="FG87" s="10"/>
+      <c r="FH87" s="10"/>
+      <c r="FI87" s="10"/>
+      <c r="FJ87" s="10"/>
+      <c r="FK87" s="10"/>
+      <c r="FL87" s="10"/>
+      <c r="FM87" s="10"/>
+      <c r="FN87" s="10"/>
+      <c r="FO87" s="10"/>
+      <c r="FP87" s="10"/>
+      <c r="FQ87" s="10"/>
+      <c r="FR87" s="10"/>
+      <c r="FS87" s="10"/>
+      <c r="FT87" s="10"/>
+      <c r="FU87" s="10"/>
+      <c r="FV87" s="10"/>
+      <c r="FW87" s="10"/>
+      <c r="FX87" s="10"/>
+      <c r="FY87" s="10"/>
+      <c r="FZ87" s="10"/>
+      <c r="GA87" s="10"/>
+      <c r="GB87" s="10"/>
+      <c r="GC87" s="10"/>
+      <c r="GD87" s="10"/>
+      <c r="GE87" s="10"/>
+      <c r="GF87" s="10"/>
+      <c r="GG87" s="10"/>
+      <c r="GH87" s="10"/>
+      <c r="GI87" s="10"/>
+      <c r="GJ87" s="10"/>
+      <c r="GK87" s="10"/>
+      <c r="GL87" s="10"/>
+      <c r="GM87" s="10"/>
+      <c r="GN87" s="10"/>
+      <c r="GO87" s="10"/>
+      <c r="GP87" s="10"/>
+      <c r="GQ87" s="10"/>
+      <c r="GR87" s="10"/>
+      <c r="GS87" s="10"/>
+      <c r="GT87" s="10"/>
+      <c r="GU87" s="10"/>
+      <c r="GV87" s="10"/>
+      <c r="GW87" s="10"/>
+      <c r="GX87" s="10"/>
+      <c r="GY87" s="10"/>
+      <c r="GZ87" s="10"/>
+      <c r="HA87" s="10"/>
+      <c r="HB87" s="10"/>
+      <c r="HC87" s="10"/>
+      <c r="HD87" s="10"/>
+      <c r="HE87" s="10"/>
+      <c r="HF87" s="10"/>
+      <c r="HG87" s="10"/>
+      <c r="HH87" s="10"/>
+      <c r="HI87" s="10"/>
+      <c r="HJ87" s="10"/>
+      <c r="HK87" s="10"/>
+      <c r="HL87" s="10"/>
+      <c r="HM87" s="10"/>
+      <c r="HN87" s="10"/>
+      <c r="HO87" s="10"/>
+      <c r="HP87" s="10"/>
+      <c r="HQ87" s="10"/>
+      <c r="HR87" s="10"/>
+      <c r="HS87" s="10"/>
+      <c r="HT87" s="10"/>
+      <c r="HU87" s="10"/>
+      <c r="HV87" s="10"/>
+      <c r="HW87" s="10"/>
+    </row>
+    <row r="88" spans="1:231" x14ac:dyDescent="0.3">
+      <c r="A88" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="19">
+        <v>1</v>
+      </c>
+      <c r="E88" s="8">
+        <v>44612</v>
+      </c>
+      <c r="F88" s="8">
+        <v>44663</v>
+      </c>
+      <c r="G88" s="9"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="10"/>
+      <c r="AA88" s="10"/>
+      <c r="AB88" s="10"/>
+      <c r="AC88" s="10"/>
+      <c r="AD88" s="10"/>
+      <c r="AE88" s="10"/>
+      <c r="AF88" s="10"/>
+      <c r="AG88" s="10"/>
+      <c r="AH88" s="10"/>
+      <c r="AI88" s="10"/>
+      <c r="AJ88" s="10"/>
+      <c r="AK88" s="10"/>
+      <c r="AL88" s="10"/>
+      <c r="AM88" s="10"/>
+      <c r="AN88" s="10"/>
+      <c r="AO88" s="10"/>
+      <c r="AP88" s="10"/>
+      <c r="AQ88" s="10"/>
+      <c r="AR88" s="10"/>
+      <c r="AS88" s="10"/>
+      <c r="AT88" s="10"/>
+      <c r="AU88" s="10"/>
+      <c r="AV88" s="10"/>
+      <c r="AW88" s="10"/>
+      <c r="AX88" s="10"/>
+      <c r="AY88" s="10"/>
+      <c r="AZ88" s="10"/>
+      <c r="BA88" s="10"/>
+      <c r="BB88" s="10"/>
+      <c r="BC88" s="10"/>
+      <c r="BD88" s="10"/>
+      <c r="BE88" s="10"/>
+      <c r="BF88" s="10"/>
+      <c r="BG88" s="10"/>
+      <c r="BH88" s="10"/>
+      <c r="BI88" s="10"/>
+      <c r="BJ88" s="10"/>
+      <c r="BK88" s="10"/>
+      <c r="BL88" s="10"/>
+      <c r="BM88" s="10"/>
+      <c r="BN88" s="10"/>
+      <c r="BO88" s="10"/>
+      <c r="BP88" s="10"/>
+      <c r="BQ88" s="10"/>
+      <c r="BR88" s="10"/>
+      <c r="BS88" s="10"/>
+      <c r="BT88" s="10"/>
+      <c r="BU88" s="10"/>
+      <c r="BV88" s="10"/>
+      <c r="BW88" s="10"/>
+      <c r="BX88" s="10"/>
+      <c r="BY88" s="10"/>
+      <c r="BZ88" s="10"/>
+      <c r="CA88" s="10"/>
+      <c r="CB88" s="10"/>
+      <c r="CC88" s="10"/>
+      <c r="CD88" s="10"/>
+      <c r="CE88" s="10"/>
+      <c r="CF88" s="10"/>
+      <c r="CG88" s="10"/>
+      <c r="CH88" s="10"/>
+      <c r="CI88" s="10"/>
+      <c r="CJ88" s="10"/>
+      <c r="CK88" s="10"/>
+      <c r="CL88" s="10"/>
+      <c r="CM88" s="10"/>
+      <c r="CN88" s="10"/>
+      <c r="CO88" s="10"/>
+      <c r="CP88" s="10"/>
+      <c r="CQ88" s="10"/>
+      <c r="CR88" s="10"/>
+      <c r="CS88" s="10"/>
+      <c r="CT88" s="10"/>
+      <c r="CU88" s="10"/>
+      <c r="CV88" s="10"/>
+      <c r="CW88" s="10"/>
+      <c r="CX88" s="10"/>
+      <c r="CY88" s="10"/>
+      <c r="CZ88" s="10"/>
+      <c r="DA88" s="10"/>
+      <c r="DB88" s="10"/>
+      <c r="DC88" s="10"/>
+      <c r="DD88" s="10"/>
+      <c r="DE88" s="10"/>
+      <c r="DF88" s="10"/>
+      <c r="DG88" s="10"/>
+      <c r="DH88" s="10"/>
+      <c r="DI88" s="10"/>
+      <c r="DJ88" s="10"/>
+      <c r="DK88" s="10"/>
+      <c r="DL88" s="10"/>
+      <c r="DM88" s="10"/>
+      <c r="DN88" s="10"/>
+      <c r="DO88" s="10"/>
+      <c r="DP88" s="10"/>
+      <c r="DQ88" s="10"/>
+      <c r="DR88" s="10"/>
+      <c r="DS88" s="10"/>
+      <c r="DT88" s="10"/>
+      <c r="DU88" s="10"/>
+      <c r="DV88" s="10"/>
+      <c r="DW88" s="10"/>
+      <c r="DX88" s="10"/>
+      <c r="DY88" s="10"/>
+      <c r="DZ88" s="10"/>
+      <c r="EA88" s="10"/>
+      <c r="EB88" s="10"/>
+      <c r="EC88" s="10"/>
+      <c r="ED88" s="10"/>
+      <c r="EE88" s="10"/>
+      <c r="EF88" s="10"/>
+      <c r="EG88" s="10"/>
+      <c r="EH88" s="10"/>
+      <c r="EI88" s="10"/>
+      <c r="EJ88" s="10"/>
+      <c r="EK88" s="10"/>
+      <c r="EL88" s="10"/>
+      <c r="EM88" s="10"/>
+      <c r="EN88" s="10"/>
+      <c r="EO88" s="10"/>
+      <c r="EP88" s="10"/>
+      <c r="EQ88" s="10"/>
+      <c r="ER88" s="10"/>
+      <c r="ES88" s="10"/>
+      <c r="ET88" s="10"/>
+      <c r="EU88" s="10"/>
+      <c r="EV88" s="10"/>
+      <c r="EW88" s="10"/>
+      <c r="EX88" s="10"/>
+      <c r="EY88" s="10"/>
+      <c r="EZ88" s="10"/>
+      <c r="FA88" s="10"/>
+      <c r="FB88" s="10"/>
+      <c r="FC88" s="10"/>
+      <c r="FD88" s="10"/>
+      <c r="FE88" s="10"/>
+      <c r="FF88" s="10"/>
+      <c r="FG88" s="10"/>
+      <c r="FH88" s="10"/>
+      <c r="FI88" s="10"/>
+      <c r="FJ88" s="10"/>
+      <c r="FK88" s="10"/>
+      <c r="FL88" s="10"/>
+      <c r="FM88" s="10"/>
+      <c r="FN88" s="10"/>
+      <c r="FO88" s="10"/>
+      <c r="FP88" s="10"/>
+      <c r="FQ88" s="10"/>
+      <c r="FR88" s="10"/>
+      <c r="FS88" s="10"/>
+      <c r="FT88" s="10"/>
+      <c r="FU88" s="10"/>
+      <c r="FV88" s="10"/>
+      <c r="FW88" s="10"/>
+      <c r="FX88" s="10"/>
+      <c r="FY88" s="10"/>
+      <c r="FZ88" s="10"/>
+      <c r="GA88" s="10"/>
+      <c r="GB88" s="10"/>
+      <c r="GC88" s="10"/>
+      <c r="GD88" s="10"/>
+      <c r="GE88" s="10"/>
+      <c r="GF88" s="10"/>
+      <c r="GG88" s="10"/>
+      <c r="GH88" s="10"/>
+      <c r="GI88" s="10"/>
+      <c r="GJ88" s="10"/>
+      <c r="GK88" s="10"/>
+      <c r="GL88" s="10"/>
+      <c r="GM88" s="10"/>
+      <c r="GN88" s="10"/>
+      <c r="GO88" s="10"/>
+      <c r="GP88" s="10"/>
+      <c r="GQ88" s="10"/>
+      <c r="GR88" s="10"/>
+      <c r="GS88" s="10"/>
+      <c r="GT88" s="10"/>
+      <c r="GU88" s="10"/>
+      <c r="GV88" s="10"/>
+      <c r="GW88" s="10"/>
+      <c r="GX88" s="10"/>
+      <c r="GY88" s="10"/>
+      <c r="GZ88" s="10"/>
+      <c r="HA88" s="10"/>
+      <c r="HB88" s="10"/>
+      <c r="HC88" s="10"/>
+      <c r="HD88" s="10"/>
+      <c r="HE88" s="10"/>
+      <c r="HF88" s="10"/>
+      <c r="HG88" s="10"/>
+      <c r="HH88" s="10"/>
+      <c r="HI88" s="10"/>
+      <c r="HJ88" s="10"/>
+      <c r="HK88" s="10"/>
+      <c r="HL88" s="10"/>
+      <c r="HM88" s="10"/>
+      <c r="HN88" s="10"/>
+      <c r="HO88" s="10"/>
+      <c r="HP88" s="10"/>
+      <c r="HQ88" s="10"/>
+      <c r="HR88" s="10"/>
+      <c r="HS88" s="10"/>
+      <c r="HT88" s="10"/>
+      <c r="HU88" s="10"/>
+      <c r="HV88" s="10"/>
+      <c r="HW88" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="E3:F3"/>
@@ -22564,12 +23716,13 @@
     <mergeCell ref="BS4:BY4"/>
     <mergeCell ref="BZ4:CF4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H7:HW79">
-    <cfRule type="expression" dxfId="23" priority="7">
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="H7:HW88">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>H$5=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72:D79">
+  <conditionalFormatting sqref="D74:D88">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -22583,49 +23736,49 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B79">
-    <cfRule type="beginsWith" dxfId="12" priority="6" operator="beginsWith" text="Milestone:">
+  <conditionalFormatting sqref="B7:B88">
+    <cfRule type="beginsWith" dxfId="10" priority="6" operator="beginsWith" text="Milestone:">
       <formula>LEFT(B7,LEN("Milestone:"))="Milestone:"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:HW28">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>1*AND(H$5&gt;=task_start,H$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>AND(H$5&gt;=$E7,H$5&lt;=$F7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:HW50">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="7" priority="21">
+      <formula>1*AND(H$5&gt;=task_start,H$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="22">
       <formula>AND(H$5&gt;=$E29,H$5&lt;=$F29)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:HW64">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>1*AND(H$5&gt;=task_start,H$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:HW63">
-    <cfRule type="expression" dxfId="18" priority="13">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>AND(H$5&gt;=$E51,H$5&lt;=$F51)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="12">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65:HW73">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>1*AND(H$5&gt;=task_start,H$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="2" priority="11">
+      <formula>AND(H$5&gt;=$E65,H$5&lt;=$F65)</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64:HW71">
-    <cfRule type="expression" dxfId="16" priority="11">
-      <formula>AND(H$5&gt;=$E64,H$5&lt;=$F64)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10">
+  <conditionalFormatting sqref="H74:HW88">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>1*AND(H$5&gt;=task_start,H$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72:HW79">
-    <cfRule type="expression" dxfId="14" priority="9">
-      <formula>AND(H$5&gt;=$E72,H$5&lt;=$F72)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8">
-      <formula>1*AND(H$5&gt;=task_start,H$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</formula>
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>AND(H$5&gt;=$E74,H$5&lt;=$F74)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D28">
@@ -22656,7 +23809,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D63">
+  <conditionalFormatting sqref="D51:D64">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -22670,7 +23823,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:D71">
+  <conditionalFormatting sqref="D65:D73">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -22687,8 +23840,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A50 A61:A63 A65:A67 A71 A52:A59" numberStoredAsText="1"/>
-    <ignoredError sqref="D9 D25" formulaRange="1"/>
+    <ignoredError sqref="A50 A62:A64 A52:A59" numberStoredAsText="1"/>
+    <ignoredError sqref="D9 D25 D43" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -22706,7 +23859,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D72:D79</xm:sqref>
+          <xm:sqref>D74:D88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{48E37283-9A62-41D0-92B1-E4E2E603B54B}">
@@ -22751,7 +23904,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D51:D63</xm:sqref>
+          <xm:sqref>D51:D64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1982375B-DD2F-4C58-AB43-245B22B947D4}">
@@ -22766,7 +23919,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D64:D71</xm:sqref>
+          <xm:sqref>D65:D73</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
